--- a/data-migration/xlsx_1900-/1909_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1909_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D391422-AD14-49D0-A64E-5D70ADC67AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E4429D-BB89-4F3C-89D5-94F4F9275F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4003,19 +4003,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="49.109375" customWidth="1"/>
-    <col min="6" max="6" width="54.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1909</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1909</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1909</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1909</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1909</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1909</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1909</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1909</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1909</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1909</v>
       </c>
@@ -4323,11 +4323,11 @@
       <c r="G12" t="s">
         <v>797</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1909</v>
       </c>
@@ -4346,11 +4346,11 @@
       <c r="G13" t="s">
         <v>807</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1909</v>
       </c>
@@ -4369,11 +4369,11 @@
       <c r="G14" t="s">
         <v>808</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1909</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1909</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1909</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1909</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1909</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1909</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1909</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1909</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1909</v>
       </c>
@@ -4606,11 +4606,11 @@
       <c r="G23" t="s">
         <v>816</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1909</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1909</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1909</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1909</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1909</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1909</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1909</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1909</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1909</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1909</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1909</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1909</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1909</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1909</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1909</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1909</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1909</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1909</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1909</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1909</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1909</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1909</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1909</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1909</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1909</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1909</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1909</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1909</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1909</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1909</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1909</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1909</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1909</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1909</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1909</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1909</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1909</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1909</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1909</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1909</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1909</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1909</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1909</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1909</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1909</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1909</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1909</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1909</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1909</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1909</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1909</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1909</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1909</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1909</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1909</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1909</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1909</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1909</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1909</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1909</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1909</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1909</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1909</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1909</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1909</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1909</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1909</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1909</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1909</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1909</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1909</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1909</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1909</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1909</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1909</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1909</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1909</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1909</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1909</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1909</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1909</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1909</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1909</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1909</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1909</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1909</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1909</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1909</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1909</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1909</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1909</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1909</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1909</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1909</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1909</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1909</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1909</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1909</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1909</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1909</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1909</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1909</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1909</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1909</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1909</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1909</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1909</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1909</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1909</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1909</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1909</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1909</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1909</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1909</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1909</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1909</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1909</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1909</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1909</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1909</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1909</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1909</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1909</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1909</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1909</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1909</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1909</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1909</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1909</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1909</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1909</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1909</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1909</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1909</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1909</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1909</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1909</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1909</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1909</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1909</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1909</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1909</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1909</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1909</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1909</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1909</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1909</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1909</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1909</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1909</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1909</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1909</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1909</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1909</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1909</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1909</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1909</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1909</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1909</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1909</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1909</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1909</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1909</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1909</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1909</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1909</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1909</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1909</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1909</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1909</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1909</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1909</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1909</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1909</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1909</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1909</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1909</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1909</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1909</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1909</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1909</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1909</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1909</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1909</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1909</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1909</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1909</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1909</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1909</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1909</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1909</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1909</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1909</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1909</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1909</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1909</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1909</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1909</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1909</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1909</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1909</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1909</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1909</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1909</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1909</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1909</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1909</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1909</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1909</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1909</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1909</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1909</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1909</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1909</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1909</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1909</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1909</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1909</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1909</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1909</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1909</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1909</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1909</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1909</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1909</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1909</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1909</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1909</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1909</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1909</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1909</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1909</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1909</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1909</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1909</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1909</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1909</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1909</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1909</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1909</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1909</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1909</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1909</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1909</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1909</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1909</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1909</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1909</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1909</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1909</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1909</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1909</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1909</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1909</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1909</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1909</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1909</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1909</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1909</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1909</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1909</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1909</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1909</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1909</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1909</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1909</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1909</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1909</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1909</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1909</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1909</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1909</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1909</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1909</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1909</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1909</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1909</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1909</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1909</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1909</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1909</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1909</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1909</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1909</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1909</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1909</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1909</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1909</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1909</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1909</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1909</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1909</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1909</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1909</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1909</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1909</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1909</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1909</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1909</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1909</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1909</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1909</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1909</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1909</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1909</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1909</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1909</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1909</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1909</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1909</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1909</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1909</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1909</v>
       </c>
@@ -12835,7 +12835,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1909</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1909</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1909</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1909</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1909</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1909</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1909</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1909</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1909</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1909</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1909</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1909</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1909</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1909</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1909</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1909</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1909</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1909</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1909</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1909</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1909</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1909</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1909</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1909</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1909</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1909</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1909</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1909</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1909</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1909</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1909</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1909</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1909</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1909</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1909</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1909</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1909</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1909</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1909</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1909</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1909</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1909</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1909</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1909</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1909</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1909</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1909</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1909</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1909</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1909</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1909</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1909</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1909</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1909</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1909</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1909</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1909</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1909</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1909</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1909</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1909</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1909</v>
       </c>

--- a/data-migration/xlsx_1900-/1909_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1909_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E4429D-BB89-4F3C-89D5-94F4F9275F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B21A89-4EFF-4977-9EEE-8D1315940882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1210">
   <si>
     <t>1909</t>
   </si>
@@ -3660,6 +3660,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4003,8 +4006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8246,7 +8249,7 @@
         <v>1096</v>
       </c>
       <c r="I161" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -8272,7 +8275,7 @@
         <v>1096</v>
       </c>
       <c r="I162" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -8298,7 +8301,7 @@
         <v>1097</v>
       </c>
       <c r="I163" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -8324,7 +8327,7 @@
         <v>1097</v>
       </c>
       <c r="I164" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -8350,7 +8353,7 @@
         <v>1097</v>
       </c>
       <c r="I165" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -8376,7 +8379,7 @@
         <v>1097</v>
       </c>
       <c r="I166" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -8402,7 +8405,7 @@
         <v>1193</v>
       </c>
       <c r="I167" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -8428,7 +8431,7 @@
         <v>1193</v>
       </c>
       <c r="I168" t="s">
-        <v>1179</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1909_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1909_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B21A89-4EFF-4977-9EEE-8D1315940882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D463101-78AD-44ED-8903-32E26AB07E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3557,9 +3557,6 @@
     <t>EO</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3663,6 +3660,9 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -4006,19 +4006,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.109375" customWidth="1"/>
+    <col min="6" max="6" width="54.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4044,7 +4044,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1909</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F2" t="s">
         <v>402</v>
@@ -4070,7 +4070,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1909</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F3" t="s">
         <v>403</v>
@@ -4096,7 +4096,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1909</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F4" t="s">
         <v>404</v>
@@ -4122,7 +4122,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1909</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F5" t="s">
         <v>405</v>
@@ -4148,7 +4148,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1909</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F6" t="s">
         <v>406</v>
@@ -4174,10 +4174,10 @@
         <v>1169</v>
       </c>
       <c r="J6" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1909</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F7" t="s">
         <v>407</v>
@@ -4203,7 +4203,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1909</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F8" t="s">
         <v>408</v>
@@ -4229,7 +4229,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1909</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F9" t="s">
         <v>409</v>
@@ -4255,7 +4255,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F10" t="s">
         <v>410</v>
@@ -4281,7 +4281,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1909</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F11" t="s">
         <v>411</v>
@@ -4307,7 +4307,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1909</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F12" t="s">
         <v>412</v>
@@ -4327,10 +4327,10 @@
         <v>797</v>
       </c>
       <c r="H12" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1909</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F13" t="s">
         <v>413</v>
@@ -4350,10 +4350,10 @@
         <v>807</v>
       </c>
       <c r="H13" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1909</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F14" t="s">
         <v>414</v>
@@ -4373,10 +4373,10 @@
         <v>808</v>
       </c>
       <c r="H14" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1909</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F15" t="s">
         <v>415</v>
@@ -4402,7 +4402,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1909</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F16" t="s">
         <v>416</v>
@@ -4428,7 +4428,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1909</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F17" t="s">
         <v>417</v>
@@ -4454,10 +4454,10 @@
         <v>1169</v>
       </c>
       <c r="J17" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1909</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F18" t="s">
         <v>418</v>
@@ -4483,7 +4483,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1909</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F19" t="s">
         <v>419</v>
@@ -4509,7 +4509,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1909</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F20" t="s">
         <v>420</v>
@@ -4535,7 +4535,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1909</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F21" t="s">
         <v>421</v>
@@ -4561,7 +4561,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1909</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F22" t="s">
         <v>422</v>
@@ -4587,10 +4587,10 @@
         <v>1169</v>
       </c>
       <c r="J22" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1909</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F23" t="s">
         <v>423</v>
@@ -4610,10 +4610,10 @@
         <v>816</v>
       </c>
       <c r="H23" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1909</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F24" t="s">
         <v>424</v>
@@ -4639,7 +4639,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1909</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F25" t="s">
         <v>425</v>
@@ -4665,10 +4665,10 @@
         <v>1169</v>
       </c>
       <c r="J25" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1909</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F26" t="s">
         <v>426</v>
@@ -4694,7 +4694,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1909</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F27" t="s">
         <v>427</v>
@@ -4720,10 +4720,10 @@
         <v>1169</v>
       </c>
       <c r="J27" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1909</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F28" t="s">
         <v>428</v>
@@ -4749,7 +4749,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1909</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F29" t="s">
         <v>429</v>
@@ -4775,7 +4775,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1909</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F30" t="s">
         <v>430</v>
@@ -4795,13 +4795,13 @@
         <v>821</v>
       </c>
       <c r="H30" t="s">
-        <v>1174</v>
+        <v>1209</v>
       </c>
       <c r="I30" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1909</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F31" t="s">
         <v>431</v>
@@ -4827,7 +4827,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1909</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F32" t="s">
         <v>432</v>
@@ -4853,10 +4853,10 @@
         <v>1169</v>
       </c>
       <c r="J32" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1909</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F33" t="s">
         <v>433</v>
@@ -4882,7 +4882,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1909</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F34" t="s">
         <v>434</v>
@@ -4908,7 +4908,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1909</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F35" t="s">
         <v>435</v>
@@ -4934,7 +4934,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1909</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F36" t="s">
         <v>436</v>
@@ -4960,7 +4960,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1909</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F37" t="s">
         <v>437</v>
@@ -4986,7 +4986,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1909</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F38" t="s">
         <v>438</v>
@@ -5012,7 +5012,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1909</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F39" t="s">
         <v>439</v>
@@ -5038,7 +5038,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1909</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F40" t="s">
         <v>440</v>
@@ -5064,7 +5064,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1909</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F41" t="s">
         <v>441</v>
@@ -5090,7 +5090,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1909</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F42" t="s">
         <v>442</v>
@@ -5110,13 +5110,13 @@
         <v>830</v>
       </c>
       <c r="H42" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I42" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1909</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F43" t="s">
         <v>443</v>
@@ -5142,7 +5142,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1909</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F44" t="s">
         <v>444</v>
@@ -5168,7 +5168,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1909</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F45" t="s">
         <v>445</v>
@@ -5188,13 +5188,13 @@
         <v>798</v>
       </c>
       <c r="H45" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I45" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1909</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F46" t="s">
         <v>446</v>
@@ -5220,7 +5220,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1909</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F47" t="s">
         <v>447</v>
@@ -5246,7 +5246,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1909</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F48" t="s">
         <v>448</v>
@@ -5272,7 +5272,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1909</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F49" t="s">
         <v>449</v>
@@ -5298,7 +5298,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1909</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F50" t="s">
         <v>450</v>
@@ -5324,7 +5324,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1909</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F51" t="s">
         <v>451</v>
@@ -5344,13 +5344,13 @@
         <v>812</v>
       </c>
       <c r="H51" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I51" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1909</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F52" t="s">
         <v>452</v>
@@ -5370,13 +5370,13 @@
         <v>838</v>
       </c>
       <c r="H52" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I52" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1909</v>
       </c>
@@ -5387,22 +5387,22 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F53" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G53" t="s">
         <v>839</v>
       </c>
       <c r="H53" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I53" t="s">
         <v>1178</v>
       </c>
-      <c r="I53" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1909</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F54" t="s">
         <v>453</v>
@@ -5428,7 +5428,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1909</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F55" t="s">
         <v>454</v>
@@ -5451,10 +5451,10 @@
         <v>1065</v>
       </c>
       <c r="I55" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1909</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F56" t="s">
         <v>455</v>
@@ -5480,7 +5480,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1909</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F57" t="s">
         <v>456</v>
@@ -5506,10 +5506,10 @@
         <v>1169</v>
       </c>
       <c r="J57" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1909</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F58" t="s">
         <v>457</v>
@@ -5535,7 +5535,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1909</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F59" t="s">
         <v>458</v>
@@ -5561,7 +5561,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1909</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F60" t="s">
         <v>459</v>
@@ -5587,7 +5587,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1909</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F61" t="s">
         <v>460</v>
@@ -5613,7 +5613,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1909</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F62" t="s">
         <v>461</v>
@@ -5639,7 +5639,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1909</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F63" t="s">
         <v>462</v>
@@ -5665,7 +5665,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1909</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F64" t="s">
         <v>463</v>
@@ -5691,7 +5691,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1909</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F65" t="s">
         <v>464</v>
@@ -5711,13 +5711,13 @@
         <v>802</v>
       </c>
       <c r="H65" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I65" t="s">
         <v>1178</v>
       </c>
-      <c r="I65" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1909</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F66" t="s">
         <v>465</v>
@@ -5737,13 +5737,13 @@
         <v>849</v>
       </c>
       <c r="H66" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I66" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1909</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F67" t="s">
         <v>466</v>
@@ -5763,13 +5763,13 @@
         <v>850</v>
       </c>
       <c r="H67" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I67" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1909</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F68" t="s">
         <v>467</v>
@@ -5789,13 +5789,13 @@
         <v>802</v>
       </c>
       <c r="H68" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I68" t="s">
         <v>1178</v>
       </c>
-      <c r="I68" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1909</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F69" t="s">
         <v>468</v>
@@ -5815,13 +5815,13 @@
         <v>851</v>
       </c>
       <c r="H69" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I69" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1909</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F70" t="s">
         <v>469</v>
@@ -5841,13 +5841,13 @@
         <v>852</v>
       </c>
       <c r="H70" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I70" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1909</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F71" t="s">
         <v>470</v>
@@ -5873,7 +5873,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1909</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F72" t="s">
         <v>471</v>
@@ -5899,7 +5899,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1909</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F73" t="s">
         <v>472</v>
@@ -5937,7 +5937,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1909</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F74" t="s">
         <v>473</v>
@@ -5975,7 +5975,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1909</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F75" t="s">
         <v>474</v>
@@ -6001,7 +6001,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1909</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F76" t="s">
         <v>475</v>
@@ -6027,7 +6027,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1909</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F77" t="s">
         <v>476</v>
@@ -6053,7 +6053,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1909</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F78" t="s">
         <v>477</v>
@@ -6079,7 +6079,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1909</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F79" t="s">
         <v>478</v>
@@ -6105,7 +6105,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1909</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F80" t="s">
         <v>479</v>
@@ -6131,7 +6131,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1909</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F81" t="s">
         <v>480</v>
@@ -6157,7 +6157,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1909</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F82" t="s">
         <v>481</v>
@@ -6183,7 +6183,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1909</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F83" t="s">
         <v>482</v>
@@ -6209,7 +6209,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1909</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F84" t="s">
         <v>483</v>
@@ -6235,7 +6235,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1909</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F85" t="s">
         <v>484</v>
@@ -6261,7 +6261,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1909</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F86" t="s">
         <v>485</v>
@@ -6287,7 +6287,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1909</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F87" t="s">
         <v>486</v>
@@ -6313,7 +6313,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1909</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F88" t="s">
         <v>487</v>
@@ -6339,7 +6339,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1909</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F89" t="s">
         <v>488</v>
@@ -6365,7 +6365,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1909</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F90" t="s">
         <v>489</v>
@@ -6391,7 +6391,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1909</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F91" t="s">
         <v>490</v>
@@ -6417,7 +6417,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1909</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F92" t="s">
         <v>491</v>
@@ -6443,7 +6443,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1909</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F93" t="s">
         <v>492</v>
@@ -6469,7 +6469,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1909</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F94" t="s">
         <v>493</v>
@@ -6495,7 +6495,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1909</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F95" t="s">
         <v>494</v>
@@ -6515,16 +6515,16 @@
         <v>874</v>
       </c>
       <c r="H95" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I95" t="s">
         <v>1169</v>
       </c>
       <c r="J95" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1909</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F96" t="s">
         <v>495</v>
@@ -6544,16 +6544,16 @@
         <v>865</v>
       </c>
       <c r="H96" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I96" t="s">
         <v>1169</v>
       </c>
       <c r="J96" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1909</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F97" t="s">
         <v>496</v>
@@ -6573,16 +6573,16 @@
         <v>875</v>
       </c>
       <c r="H97" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I97" t="s">
         <v>1169</v>
       </c>
       <c r="J97" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1909</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F98" t="s">
         <v>497</v>
@@ -6602,16 +6602,16 @@
         <v>876</v>
       </c>
       <c r="H98" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I98" t="s">
         <v>1169</v>
       </c>
       <c r="J98" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1909</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F99" t="s">
         <v>498</v>
@@ -6631,16 +6631,16 @@
         <v>857</v>
       </c>
       <c r="H99" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I99" t="s">
         <v>1169</v>
       </c>
       <c r="J99" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1909</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F100" t="s">
         <v>499</v>
@@ -6666,7 +6666,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1909</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F101" t="s">
         <v>500</v>
@@ -6692,7 +6692,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1909</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F102" t="s">
         <v>501</v>
@@ -6718,7 +6718,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1909</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F103" t="s">
         <v>502</v>
@@ -6744,7 +6744,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1909</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F104" t="s">
         <v>503</v>
@@ -6770,7 +6770,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1909</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F105" t="s">
         <v>504</v>
@@ -6796,7 +6796,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1909</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F106" t="s">
         <v>505</v>
@@ -6822,7 +6822,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1909</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F107" t="s">
         <v>506</v>
@@ -6848,7 +6848,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1909</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F108" t="s">
         <v>507</v>
@@ -6874,7 +6874,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1909</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F109" t="s">
         <v>508</v>
@@ -6900,7 +6900,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1909</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F110" t="s">
         <v>509</v>
@@ -6926,7 +6926,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1909</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F111" t="s">
         <v>510</v>
@@ -6952,7 +6952,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1909</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F112" t="s">
         <v>511</v>
@@ -6978,7 +6978,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1909</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F113" t="s">
         <v>512</v>
@@ -7004,7 +7004,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1909</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F114" t="s">
         <v>513</v>
@@ -7030,7 +7030,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1909</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F115" t="s">
         <v>514</v>
@@ -7056,7 +7056,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1909</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F116" t="s">
         <v>515</v>
@@ -7082,7 +7082,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1909</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F117" t="s">
         <v>516</v>
@@ -7108,7 +7108,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1909</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F118" t="s">
         <v>517</v>
@@ -7128,13 +7128,13 @@
         <v>807</v>
       </c>
       <c r="H118" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I118" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1909</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F119" t="s">
         <v>518</v>
@@ -7160,7 +7160,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1909</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F120" t="s">
         <v>519</v>
@@ -7186,7 +7186,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1909</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F121" t="s">
         <v>520</v>
@@ -7212,7 +7212,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1909</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F122" t="s">
         <v>521</v>
@@ -7238,7 +7238,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1909</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F123" t="s">
         <v>522</v>
@@ -7264,7 +7264,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1909</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F124" t="s">
         <v>523</v>
@@ -7290,7 +7290,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1909</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F125" t="s">
         <v>524</v>
@@ -7316,7 +7316,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1909</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F126" t="s">
         <v>525</v>
@@ -7342,7 +7342,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1909</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F127" t="s">
         <v>526</v>
@@ -7368,7 +7368,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1909</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F128" t="s">
         <v>527</v>
@@ -7394,7 +7394,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1909</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F129" t="s">
         <v>528</v>
@@ -7420,7 +7420,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1909</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F130" t="s">
         <v>529</v>
@@ -7446,7 +7446,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1909</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F131" t="s">
         <v>530</v>
@@ -7472,7 +7472,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1909</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F132" t="s">
         <v>531</v>
@@ -7498,7 +7498,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1909</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F133" t="s">
         <v>532</v>
@@ -7524,7 +7524,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1909</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F134" t="s">
         <v>533</v>
@@ -7550,7 +7550,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1909</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F135" t="s">
         <v>534</v>
@@ -7576,7 +7576,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1909</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F136" t="s">
         <v>535</v>
@@ -7602,7 +7602,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1909</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F137" t="s">
         <v>536</v>
@@ -7628,7 +7628,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1909</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F138" t="s">
         <v>537</v>
@@ -7654,7 +7654,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1909</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F139" t="s">
         <v>538</v>
@@ -7680,7 +7680,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1909</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F140" t="s">
         <v>539</v>
@@ -7706,7 +7706,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1909</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F141" t="s">
         <v>540</v>
@@ -7732,7 +7732,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1909</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F142" t="s">
         <v>541</v>
@@ -7758,7 +7758,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1909</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F143" t="s">
         <v>542</v>
@@ -7778,13 +7778,13 @@
         <v>899</v>
       </c>
       <c r="H143" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I143" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1909</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F144" t="s">
         <v>543</v>
@@ -7804,13 +7804,13 @@
         <v>900</v>
       </c>
       <c r="H144" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I144" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1909</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F145" t="s">
         <v>544</v>
@@ -7830,13 +7830,13 @@
         <v>901</v>
       </c>
       <c r="H145" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I145" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1909</v>
       </c>
@@ -7847,10 +7847,10 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F146" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G146" t="s">
         <v>902</v>
@@ -7862,7 +7862,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1909</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F147" t="s">
         <v>545</v>
@@ -7888,7 +7888,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1909</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F148" t="s">
         <v>546</v>
@@ -7914,7 +7914,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1909</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F149" t="s">
         <v>547</v>
@@ -7940,7 +7940,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1909</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F150" t="s">
         <v>548</v>
@@ -7966,7 +7966,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1909</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F151" t="s">
         <v>549</v>
@@ -7992,7 +7992,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1909</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F152" t="s">
         <v>550</v>
@@ -8018,7 +8018,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1909</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F153" t="s">
         <v>551</v>
@@ -8044,7 +8044,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1909</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F154" t="s">
         <v>552</v>
@@ -8070,7 +8070,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1909</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F155" t="s">
         <v>553</v>
@@ -8096,7 +8096,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1909</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F156" t="s">
         <v>554</v>
@@ -8122,7 +8122,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1909</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F157" t="s">
         <v>555</v>
@@ -8148,7 +8148,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1909</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F158" t="s">
         <v>556</v>
@@ -8168,13 +8168,13 @@
         <v>802</v>
       </c>
       <c r="H158" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I158" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1909</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F159" t="s">
         <v>557</v>
@@ -8200,7 +8200,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1909</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F160" t="s">
         <v>558</v>
@@ -8226,7 +8226,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1909</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F161" t="s">
         <v>559</v>
@@ -8249,10 +8249,10 @@
         <v>1096</v>
       </c>
       <c r="I161" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1909</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F162" t="s">
         <v>560</v>
@@ -8275,10 +8275,10 @@
         <v>1096</v>
       </c>
       <c r="I162" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1909</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F163" t="s">
         <v>561</v>
@@ -8301,10 +8301,10 @@
         <v>1097</v>
       </c>
       <c r="I163" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1909</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F164" t="s">
         <v>562</v>
@@ -8327,10 +8327,10 @@
         <v>1097</v>
       </c>
       <c r="I164" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1909</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F165" t="s">
         <v>563</v>
@@ -8353,10 +8353,10 @@
         <v>1097</v>
       </c>
       <c r="I165" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1909</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F166" t="s">
         <v>564</v>
@@ -8379,10 +8379,10 @@
         <v>1097</v>
       </c>
       <c r="I166" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1909</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F167" t="s">
         <v>565</v>
@@ -8402,13 +8402,13 @@
         <v>916</v>
       </c>
       <c r="H167" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I167" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1909</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F168" t="s">
         <v>566</v>
@@ -8428,13 +8428,13 @@
         <v>917</v>
       </c>
       <c r="H168" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I168" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1909</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F169" t="s">
         <v>567</v>
@@ -8460,7 +8460,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1909</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F170" t="s">
         <v>568</v>
@@ -8486,7 +8486,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1909</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F171" t="s">
         <v>569</v>
@@ -8512,7 +8512,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1909</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F172" t="s">
         <v>570</v>
@@ -8538,7 +8538,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1909</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F173" t="s">
         <v>571</v>
@@ -8564,7 +8564,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1909</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F174" t="s">
         <v>572</v>
@@ -8590,7 +8590,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1909</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F175" t="s">
         <v>573</v>
@@ -8616,7 +8616,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1909</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F176" t="s">
         <v>574</v>
@@ -8642,7 +8642,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1909</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F177" t="s">
         <v>575</v>
@@ -8668,7 +8668,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1909</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F178" t="s">
         <v>576</v>
@@ -8694,7 +8694,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1909</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F179" t="s">
         <v>577</v>
@@ -8720,7 +8720,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1909</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F180" t="s">
         <v>578</v>
@@ -8746,7 +8746,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1909</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F181" t="s">
         <v>579</v>
@@ -8772,7 +8772,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1909</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F182" t="s">
         <v>580</v>
@@ -8798,7 +8798,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1909</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F183" t="s">
         <v>581</v>
@@ -8824,7 +8824,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1909</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F184" t="s">
         <v>582</v>
@@ -8850,7 +8850,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1909</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F185" t="s">
         <v>583</v>
@@ -8876,7 +8876,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1909</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F186" t="s">
         <v>584</v>
@@ -8902,7 +8902,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1909</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F187" t="s">
         <v>585</v>
@@ -8928,7 +8928,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1909</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F188" t="s">
         <v>586</v>
@@ -8954,7 +8954,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1909</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F189" t="s">
         <v>587</v>
@@ -8980,7 +8980,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1909</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F190" t="s">
         <v>588</v>
@@ -9006,7 +9006,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1909</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F191" t="s">
         <v>589</v>
@@ -9032,7 +9032,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1909</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F192" t="s">
         <v>590</v>
@@ -9058,7 +9058,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1909</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F193" t="s">
         <v>591</v>
@@ -9084,7 +9084,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1909</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F194" t="s">
         <v>592</v>
@@ -9110,7 +9110,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1909</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F195" t="s">
         <v>593</v>
@@ -9130,13 +9130,13 @@
         <v>939</v>
       </c>
       <c r="H195" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I195" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1909</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F196" t="s">
         <v>594</v>
@@ -9162,10 +9162,10 @@
         <v>1173</v>
       </c>
       <c r="J196" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1909</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F197" t="s">
         <v>595</v>
@@ -9191,10 +9191,10 @@
         <v>1173</v>
       </c>
       <c r="J197" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1909</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F198" t="s">
         <v>596</v>
@@ -9220,7 +9220,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1909</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F199" t="s">
         <v>597</v>
@@ -9246,7 +9246,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1909</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F200" t="s">
         <v>598</v>
@@ -9272,7 +9272,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1909</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F201" t="s">
         <v>599</v>
@@ -9292,13 +9292,13 @@
         <v>941</v>
       </c>
       <c r="H201" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I201" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1909</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F202" t="s">
         <v>600</v>
@@ -9324,7 +9324,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1909</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F203" t="s">
         <v>601</v>
@@ -9350,7 +9350,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1909</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F204" t="s">
         <v>602</v>
@@ -9376,10 +9376,10 @@
         <v>1169</v>
       </c>
       <c r="J204" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1909</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F205" t="s">
         <v>603</v>
@@ -9405,7 +9405,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1909</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F206" t="s">
         <v>604</v>
@@ -9431,7 +9431,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1909</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F207" t="s">
         <v>605</v>
@@ -9457,7 +9457,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1909</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F208" t="s">
         <v>606</v>
@@ -9483,7 +9483,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1909</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F209" t="s">
         <v>607</v>
@@ -9509,7 +9509,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1909</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F210" t="s">
         <v>608</v>
@@ -9535,7 +9535,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1909</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F211" t="s">
         <v>609</v>
@@ -9561,10 +9561,10 @@
         <v>1169</v>
       </c>
       <c r="J211" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1909</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F212" t="s">
         <v>610</v>
@@ -9590,7 +9590,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1909</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F213" t="s">
         <v>611</v>
@@ -9616,7 +9616,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1909</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F214" t="s">
         <v>612</v>
@@ -9642,10 +9642,10 @@
         <v>1169</v>
       </c>
       <c r="J214" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1909</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F215" t="s">
         <v>613</v>
@@ -9671,7 +9671,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1909</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F216" t="s">
         <v>614</v>
@@ -9697,7 +9697,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1909</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F217" t="s">
         <v>615</v>
@@ -9723,7 +9723,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1909</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F218" t="s">
         <v>616</v>
@@ -9749,10 +9749,10 @@
         <v>1169</v>
       </c>
       <c r="J218" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1909</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>223</v>
       </c>
       <c r="E219" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F219" t="s">
         <v>617</v>
@@ -9778,7 +9778,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1909</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>224</v>
       </c>
       <c r="E220" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F220" t="s">
         <v>618</v>
@@ -9798,13 +9798,13 @@
         <v>957</v>
       </c>
       <c r="H220" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I220" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1909</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F221" t="s">
         <v>619</v>
@@ -9824,13 +9824,13 @@
         <v>958</v>
       </c>
       <c r="H221" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I221" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1909</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F222" t="s">
         <v>620</v>
@@ -9850,13 +9850,13 @@
         <v>959</v>
       </c>
       <c r="H222" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I222" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1909</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>227</v>
       </c>
       <c r="E223" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F223" t="s">
         <v>621</v>
@@ -9882,7 +9882,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1909</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>228</v>
       </c>
       <c r="E224" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F224" t="s">
         <v>622</v>
@@ -9908,7 +9908,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1909</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F225" t="s">
         <v>623</v>
@@ -9934,7 +9934,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1909</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F226" t="s">
         <v>624</v>
@@ -9960,7 +9960,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1909</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>231</v>
       </c>
       <c r="E227" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F227" t="s">
         <v>625</v>
@@ -9986,7 +9986,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1909</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F228" t="s">
         <v>626</v>
@@ -10012,7 +10012,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1909</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>233</v>
       </c>
       <c r="E229" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F229" t="s">
         <v>627</v>
@@ -10038,7 +10038,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1909</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>234</v>
       </c>
       <c r="E230" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F230" t="s">
         <v>628</v>
@@ -10064,7 +10064,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1909</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>235</v>
       </c>
       <c r="E231" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F231" t="s">
         <v>629</v>
@@ -10090,7 +10090,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1909</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>236</v>
       </c>
       <c r="E232" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F232" t="s">
         <v>630</v>
@@ -10116,7 +10116,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1909</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>237</v>
       </c>
       <c r="E233" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F233" t="s">
         <v>631</v>
@@ -10136,13 +10136,13 @@
         <v>851</v>
       </c>
       <c r="H233" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I233" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1909</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>238</v>
       </c>
       <c r="E234" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F234" t="s">
         <v>632</v>
@@ -10162,13 +10162,13 @@
         <v>851</v>
       </c>
       <c r="H234" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I234" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1909</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F235" t="s">
         <v>633</v>
@@ -10188,13 +10188,13 @@
         <v>846</v>
       </c>
       <c r="H235" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I235" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1909</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>240</v>
       </c>
       <c r="E236" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F236" t="s">
         <v>634</v>
@@ -10220,7 +10220,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1909</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>241</v>
       </c>
       <c r="E237" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F237" t="s">
         <v>635</v>
@@ -10240,13 +10240,13 @@
         <v>964</v>
       </c>
       <c r="H237" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I237" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1909</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>242</v>
       </c>
       <c r="E238" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F238" t="s">
         <v>636</v>
@@ -10272,7 +10272,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1909</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>243</v>
       </c>
       <c r="E239" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F239" t="s">
         <v>637</v>
@@ -10298,7 +10298,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1909</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>244</v>
       </c>
       <c r="E240" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F240" t="s">
         <v>638</v>
@@ -10324,7 +10324,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1909</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>245</v>
       </c>
       <c r="E241" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F241" t="s">
         <v>639</v>
@@ -10350,7 +10350,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1909</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F242" t="s">
         <v>640</v>
@@ -10376,7 +10376,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1909</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F243" t="s">
         <v>641</v>
@@ -10396,13 +10396,13 @@
         <v>807</v>
       </c>
       <c r="H243" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I243" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1909</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F244" t="s">
         <v>642</v>
@@ -10428,7 +10428,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1909</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F245" t="s">
         <v>643</v>
@@ -10454,7 +10454,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1909</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F246" t="s">
         <v>644</v>
@@ -10480,7 +10480,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1909</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F247" t="s">
         <v>645</v>
@@ -10506,7 +10506,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1909</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F248" t="s">
         <v>646</v>
@@ -10526,13 +10526,13 @@
         <v>970</v>
       </c>
       <c r="H248" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I248" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1909</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F249" t="s">
         <v>647</v>
@@ -10552,13 +10552,13 @@
         <v>971</v>
       </c>
       <c r="H249" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I249" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1909</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F250" t="s">
         <v>648</v>
@@ -10584,7 +10584,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1909</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F251" t="s">
         <v>649</v>
@@ -10610,7 +10610,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1909</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>256</v>
       </c>
       <c r="E252" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F252" t="s">
         <v>650</v>
@@ -10636,7 +10636,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1909</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F253" t="s">
         <v>651</v>
@@ -10662,7 +10662,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1909</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F254" t="s">
         <v>652</v>
@@ -10688,7 +10688,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1909</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F255" t="s">
         <v>653</v>
@@ -10714,7 +10714,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1909</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F256" t="s">
         <v>654</v>
@@ -10734,13 +10734,13 @@
         <v>975</v>
       </c>
       <c r="H256" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I256" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1909</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F257" t="s">
         <v>655</v>
@@ -10760,13 +10760,13 @@
         <v>976</v>
       </c>
       <c r="H257" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I257" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1909</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>262</v>
       </c>
       <c r="E258" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F258" t="s">
         <v>656</v>
@@ -10786,13 +10786,13 @@
         <v>977</v>
       </c>
       <c r="H258" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I258" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1909</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>263</v>
       </c>
       <c r="E259" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F259" t="s">
         <v>657</v>
@@ -10821,7 +10821,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1909</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>264</v>
       </c>
       <c r="E260" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F260" t="s">
         <v>658</v>
@@ -10850,7 +10850,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1909</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F261" t="s">
         <v>659</v>
@@ -10876,7 +10876,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1909</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>266</v>
       </c>
       <c r="E262" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F262" t="s">
         <v>660</v>
@@ -10902,7 +10902,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1909</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>267</v>
       </c>
       <c r="E263" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F263" t="s">
         <v>661</v>
@@ -10928,7 +10928,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1909</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>268</v>
       </c>
       <c r="E264" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F264" t="s">
         <v>662</v>
@@ -10954,7 +10954,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1909</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>269</v>
       </c>
       <c r="E265" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F265" t="s">
         <v>663</v>
@@ -10980,7 +10980,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1909</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>270</v>
       </c>
       <c r="E266" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F266" t="s">
         <v>664</v>
@@ -11006,7 +11006,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1909</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>271</v>
       </c>
       <c r="E267" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F267" t="s">
         <v>665</v>
@@ -11032,7 +11032,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1909</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>272</v>
       </c>
       <c r="E268" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F268" t="s">
         <v>666</v>
@@ -11058,7 +11058,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1909</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>273</v>
       </c>
       <c r="E269" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F269" t="s">
         <v>667</v>
@@ -11084,7 +11084,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1909</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>274</v>
       </c>
       <c r="E270" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F270" t="s">
         <v>668</v>
@@ -11110,7 +11110,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1909</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>275</v>
       </c>
       <c r="E271" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F271" t="s">
         <v>669</v>
@@ -11136,7 +11136,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1909</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>276</v>
       </c>
       <c r="E272" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F272" t="s">
         <v>670</v>
@@ -11162,7 +11162,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1909</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>277</v>
       </c>
       <c r="E273" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F273" t="s">
         <v>671</v>
@@ -11188,7 +11188,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1909</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F274" t="s">
         <v>672</v>
@@ -11214,7 +11214,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1909</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>279</v>
       </c>
       <c r="E275" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F275" t="s">
         <v>673</v>
@@ -11240,7 +11240,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1909</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F276" t="s">
         <v>674</v>
@@ -11266,7 +11266,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1909</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F277" t="s">
         <v>675</v>
@@ -11292,7 +11292,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1909</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F278" t="s">
         <v>676</v>
@@ -11318,7 +11318,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1909</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F279" t="s">
         <v>677</v>
@@ -11344,7 +11344,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1909</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F280" t="s">
         <v>678</v>
@@ -11370,7 +11370,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1909</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F281" t="s">
         <v>679</v>
@@ -11390,13 +11390,13 @@
         <v>837</v>
       </c>
       <c r="H281" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I281" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1909</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F282" t="s">
         <v>680</v>
@@ -11416,13 +11416,13 @@
         <v>987</v>
       </c>
       <c r="H282" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I282" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1909</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F283" t="s">
         <v>681</v>
@@ -11448,7 +11448,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1909</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F284" t="s">
         <v>682</v>
@@ -11474,7 +11474,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1909</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F285" t="s">
         <v>683</v>
@@ -11500,7 +11500,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1909</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F286" t="s">
         <v>684</v>
@@ -11526,7 +11526,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1909</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F287" t="s">
         <v>685</v>
@@ -11552,7 +11552,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1909</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F288" t="s">
         <v>686</v>
@@ -11578,7 +11578,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1909</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F289" t="s">
         <v>687</v>
@@ -11604,7 +11604,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1909</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F290" t="s">
         <v>688</v>
@@ -11630,7 +11630,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1909</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F291" t="s">
         <v>689</v>
@@ -11656,7 +11656,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1909</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F292" t="s">
         <v>690</v>
@@ -11685,7 +11685,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1909</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F293" t="s">
         <v>691</v>
@@ -11711,7 +11711,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1909</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F294" t="s">
         <v>692</v>
@@ -11737,7 +11737,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1909</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F295" t="s">
         <v>693</v>
@@ -11757,13 +11757,13 @@
         <v>993</v>
       </c>
       <c r="H295" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I295" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1909</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F296" t="s">
         <v>694</v>
@@ -11789,7 +11789,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1909</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F297" t="s">
         <v>695</v>
@@ -11809,13 +11809,13 @@
         <v>995</v>
       </c>
       <c r="H297" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I297" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1909</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F298" t="s">
         <v>696</v>
@@ -11841,7 +11841,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1909</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F299" t="s">
         <v>697</v>
@@ -11867,7 +11867,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1909</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F300" t="s">
         <v>698</v>
@@ -11893,7 +11893,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1909</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F301" t="s">
         <v>699</v>
@@ -11919,7 +11919,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1909</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F302" t="s">
         <v>700</v>
@@ -11945,7 +11945,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1909</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F303" t="s">
         <v>701</v>
@@ -11971,7 +11971,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1909</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F304" t="s">
         <v>702</v>
@@ -11997,7 +11997,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1909</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F305" t="s">
         <v>703</v>
@@ -12023,7 +12023,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1909</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F306" t="s">
         <v>704</v>
@@ -12049,7 +12049,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1909</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F307" t="s">
         <v>705</v>
@@ -12075,7 +12075,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1909</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F308" t="s">
         <v>706</v>
@@ -12101,7 +12101,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1909</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F309" t="s">
         <v>707</v>
@@ -12127,7 +12127,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1909</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F310" t="s">
         <v>708</v>
@@ -12153,7 +12153,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1909</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F311" t="s">
         <v>709</v>
@@ -12179,7 +12179,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1909</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F312" t="s">
         <v>710</v>
@@ -12205,7 +12205,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1909</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F313" t="s">
         <v>711</v>
@@ -12231,7 +12231,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1909</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F314" t="s">
         <v>712</v>
@@ -12257,7 +12257,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1909</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F315" t="s">
         <v>713</v>
@@ -12283,7 +12283,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1909</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F316" t="s">
         <v>714</v>
@@ -12309,7 +12309,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1909</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F317" t="s">
         <v>715</v>
@@ -12335,7 +12335,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1909</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F318" t="s">
         <v>716</v>
@@ -12364,7 +12364,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1909</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F319" t="s">
         <v>717</v>
@@ -12393,7 +12393,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1909</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F320" t="s">
         <v>718</v>
@@ -12422,7 +12422,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1909</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F321" t="s">
         <v>719</v>
@@ -12448,7 +12448,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1909</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F322" t="s">
         <v>720</v>
@@ -12474,7 +12474,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1909</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F323" t="s">
         <v>721</v>
@@ -12500,7 +12500,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1909</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F324" t="s">
         <v>722</v>
@@ -12526,7 +12526,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1909</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F325" t="s">
         <v>723</v>
@@ -12552,7 +12552,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1909</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F326" t="s">
         <v>724</v>
@@ -12578,7 +12578,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1909</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F327" t="s">
         <v>725</v>
@@ -12604,7 +12604,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1909</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F328" t="s">
         <v>726</v>
@@ -12630,7 +12630,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1909</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F329" t="s">
         <v>727</v>
@@ -12656,7 +12656,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1909</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F330" t="s">
         <v>728</v>
@@ -12682,7 +12682,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1909</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F331" t="s">
         <v>729</v>
@@ -12708,7 +12708,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1909</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F332" t="s">
         <v>730</v>
@@ -12734,7 +12734,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1909</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F333" t="s">
         <v>731</v>
@@ -12760,7 +12760,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1909</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F334" t="s">
         <v>732</v>
@@ -12786,7 +12786,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1909</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F335" t="s">
         <v>733</v>
@@ -12812,7 +12812,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1909</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F336" t="s">
         <v>734</v>
@@ -12838,7 +12838,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1909</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F337" t="s">
         <v>735</v>
@@ -12864,7 +12864,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1909</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F338" t="s">
         <v>736</v>
@@ -12890,7 +12890,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1909</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F339" t="s">
         <v>737</v>
@@ -12916,7 +12916,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1909</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F340" t="s">
         <v>738</v>
@@ -12942,7 +12942,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1909</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F341" t="s">
         <v>739</v>
@@ -12968,7 +12968,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1909</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F342" t="s">
         <v>740</v>
@@ -12994,7 +12994,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1909</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F343" t="s">
         <v>741</v>
@@ -13020,7 +13020,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1909</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F344" t="s">
         <v>742</v>
@@ -13046,7 +13046,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1909</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F345" t="s">
         <v>743</v>
@@ -13072,7 +13072,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1909</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F346" t="s">
         <v>744</v>
@@ -13098,7 +13098,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1909</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F347" t="s">
         <v>745</v>
@@ -13124,7 +13124,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1909</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F348" t="s">
         <v>746</v>
@@ -13150,7 +13150,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1909</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F349" t="s">
         <v>747</v>
@@ -13176,7 +13176,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1909</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F350" t="s">
         <v>748</v>
@@ -13202,7 +13202,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1909</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F351" t="s">
         <v>749</v>
@@ -13231,7 +13231,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1909</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F352" t="s">
         <v>750</v>
@@ -13260,7 +13260,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1909</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F353" t="s">
         <v>751</v>
@@ -13289,7 +13289,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1909</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F354" t="s">
         <v>752</v>
@@ -13318,7 +13318,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1909</v>
       </c>
@@ -13332,7 +13332,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F355" t="s">
         <v>753</v>
@@ -13341,13 +13341,13 @@
         <v>955</v>
       </c>
       <c r="H355" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I355" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1909</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F356" t="s">
         <v>754</v>
@@ -13370,13 +13370,13 @@
         <v>807</v>
       </c>
       <c r="H356" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I356" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1909</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F357" t="s">
         <v>755</v>
@@ -13399,13 +13399,13 @@
         <v>1026</v>
       </c>
       <c r="H357" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I357" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1909</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F358" t="s">
         <v>756</v>
@@ -13431,7 +13431,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1909</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F359" t="s">
         <v>757</v>
@@ -13457,7 +13457,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1909</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F360" t="s">
         <v>758</v>
@@ -13477,13 +13477,13 @@
         <v>1027</v>
       </c>
       <c r="H360" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I360" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1909</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F361" t="s">
         <v>759</v>
@@ -13503,13 +13503,13 @@
         <v>802</v>
       </c>
       <c r="H361" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I361" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1909</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F362" t="s">
         <v>760</v>
@@ -13535,7 +13535,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1909</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F363" t="s">
         <v>761</v>
@@ -13561,7 +13561,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1909</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F364" t="s">
         <v>762</v>
@@ -13587,10 +13587,10 @@
         <v>1169</v>
       </c>
       <c r="J364" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1909</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F365" t="s">
         <v>763</v>
@@ -13616,10 +13616,10 @@
         <v>1169</v>
       </c>
       <c r="J365" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1909</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F366" t="s">
         <v>764</v>
@@ -13645,10 +13645,10 @@
         <v>1169</v>
       </c>
       <c r="J366" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1909</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F367" t="s">
         <v>765</v>
@@ -13674,10 +13674,10 @@
         <v>1169</v>
       </c>
       <c r="J367" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1909</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F368" t="s">
         <v>766</v>
@@ -13697,13 +13697,13 @@
         <v>807</v>
       </c>
       <c r="H368" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I368" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1909</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F369" t="s">
         <v>767</v>
@@ -13723,13 +13723,13 @@
         <v>802</v>
       </c>
       <c r="H369" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I369" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1909</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F370" t="s">
         <v>768</v>
@@ -13749,13 +13749,13 @@
         <v>1029</v>
       </c>
       <c r="H370" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I370" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1909</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F371" t="s">
         <v>769</v>
@@ -13775,13 +13775,13 @@
         <v>1030</v>
       </c>
       <c r="H371" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I371" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1909</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F372" t="s">
         <v>770</v>
@@ -13801,13 +13801,13 @@
         <v>851</v>
       </c>
       <c r="H372" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I372" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1909</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F373" t="s">
         <v>771</v>
@@ -13827,13 +13827,13 @@
         <v>1031</v>
       </c>
       <c r="H373" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I373" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1909</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F374" t="s">
         <v>772</v>
@@ -13853,13 +13853,13 @@
         <v>802</v>
       </c>
       <c r="H374" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I374" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1909</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F375" t="s">
         <v>773</v>
@@ -13879,13 +13879,13 @@
         <v>1032</v>
       </c>
       <c r="H375" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I375" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1909</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F376" t="s">
         <v>774</v>
@@ -13905,13 +13905,13 @@
         <v>1033</v>
       </c>
       <c r="H376" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I376" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1909</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F377" t="s">
         <v>775</v>
@@ -13931,13 +13931,13 @@
         <v>1034</v>
       </c>
       <c r="H377" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I377" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1909</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F378" t="s">
         <v>776</v>
@@ -13963,7 +13963,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1909</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F379" t="s">
         <v>777</v>
@@ -13989,7 +13989,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1909</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F380" t="s">
         <v>778</v>
@@ -14015,7 +14015,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1909</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F381" t="s">
         <v>779</v>
@@ -14041,7 +14041,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1909</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F382" t="s">
         <v>780</v>
@@ -14067,7 +14067,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1909</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F383" t="s">
         <v>781</v>
@@ -14093,7 +14093,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1909</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F384" t="s">
         <v>782</v>
@@ -14119,7 +14119,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1909</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F385" t="s">
         <v>783</v>
@@ -14145,7 +14145,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1909</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F386" t="s">
         <v>784</v>
@@ -14171,7 +14171,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1909</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F387" t="s">
         <v>785</v>
@@ -14197,7 +14197,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1909</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F388" t="s">
         <v>786</v>
@@ -14223,7 +14223,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1909</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F389" t="s">
         <v>787</v>
@@ -14249,7 +14249,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1909</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F390" t="s">
         <v>788</v>
@@ -14275,7 +14275,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1909</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F391" t="s">
         <v>789</v>
@@ -14301,7 +14301,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1909</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F392" t="s">
         <v>790</v>
@@ -14327,7 +14327,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1909</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F393" t="s">
         <v>791</v>
@@ -14353,7 +14353,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1909</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F394" t="s">
         <v>792</v>
@@ -14379,7 +14379,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1909</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F395" t="s">
         <v>793</v>
@@ -14405,7 +14405,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1909</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F396" t="s">
         <v>794</v>
@@ -14431,7 +14431,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1909</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F397" t="s">
         <v>795</v>
@@ -14457,7 +14457,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1909</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F398" t="s">
         <v>796</v>

--- a/data-migration/xlsx_1900-/1909_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1909_Sommer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D463101-78AD-44ED-8903-32E26AB07E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9CAB50-A6C8-43F1-94A6-ABFC2F4F3C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3287,9 +3287,6 @@
     <t>hottinger_r</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3482,30 +3479,15 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
     <t>martin_r</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>hitzig_hf</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>schulthess_w</t>
   </si>
   <si>
@@ -3536,9 +3518,6 @@
     <t>dequervain_a</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3663,6 +3642,27 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3702,7 +3702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4006,11 +4006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="F75" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="49.109375" customWidth="1"/>
     <col min="6" max="6" width="54.5546875" customWidth="1"/>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4041,7 +4041,7 @@
         <v>1049</v>
       </c>
       <c r="I1" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4055,7 +4055,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F2" t="s">
         <v>402</v>
@@ -4067,7 +4067,7 @@
         <v>1048</v>
       </c>
       <c r="I2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4081,7 +4081,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F3" t="s">
         <v>403</v>
@@ -4090,10 +4090,10 @@
         <v>798</v>
       </c>
       <c r="H3" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="I3" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4107,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F4" t="s">
         <v>404</v>
@@ -4119,7 +4119,7 @@
         <v>1049</v>
       </c>
       <c r="I4" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F5" t="s">
         <v>405</v>
@@ -4142,10 +4142,10 @@
         <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="I5" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F6" t="s">
         <v>406</v>
@@ -4168,13 +4168,13 @@
         <v>801</v>
       </c>
       <c r="H6" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="I6" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J6" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4188,7 +4188,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F7" t="s">
         <v>407</v>
@@ -4200,7 +4200,7 @@
         <v>1051</v>
       </c>
       <c r="I7" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4214,7 +4214,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F8" t="s">
         <v>408</v>
@@ -4226,7 +4226,7 @@
         <v>1052</v>
       </c>
       <c r="I8" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4240,7 +4240,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F9" t="s">
         <v>409</v>
@@ -4252,7 +4252,7 @@
         <v>1052</v>
       </c>
       <c r="I9" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4266,7 +4266,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F10" t="s">
         <v>410</v>
@@ -4278,7 +4278,7 @@
         <v>1052</v>
       </c>
       <c r="I10" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4292,7 +4292,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F11" t="s">
         <v>411</v>
@@ -4304,7 +4304,7 @@
         <v>1051</v>
       </c>
       <c r="I11" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4318,7 +4318,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F12" t="s">
         <v>412</v>
@@ -4327,7 +4327,7 @@
         <v>797</v>
       </c>
       <c r="H12" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4341,7 +4341,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F13" t="s">
         <v>413</v>
@@ -4350,7 +4350,7 @@
         <v>807</v>
       </c>
       <c r="H13" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4364,7 +4364,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F14" t="s">
         <v>414</v>
@@ -4373,7 +4373,7 @@
         <v>808</v>
       </c>
       <c r="H14" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4387,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F15" t="s">
         <v>415</v>
@@ -4396,10 +4396,10 @@
         <v>809</v>
       </c>
       <c r="H15" t="s">
-        <v>1152</v>
+        <v>1206</v>
       </c>
       <c r="I15" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4413,7 +4413,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F16" t="s">
         <v>416</v>
@@ -4422,10 +4422,10 @@
         <v>810</v>
       </c>
       <c r="H16" t="s">
-        <v>1152</v>
+        <v>1206</v>
       </c>
       <c r="I16" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4439,7 +4439,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F17" t="s">
         <v>417</v>
@@ -4448,13 +4448,13 @@
         <v>811</v>
       </c>
       <c r="H17" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="I17" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J17" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4468,7 +4468,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F18" t="s">
         <v>418</v>
@@ -4480,7 +4480,7 @@
         <v>1048</v>
       </c>
       <c r="I18" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4494,7 +4494,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F19" t="s">
         <v>419</v>
@@ -4506,7 +4506,7 @@
         <v>1048</v>
       </c>
       <c r="I19" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4520,7 +4520,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F20" t="s">
         <v>420</v>
@@ -4532,7 +4532,7 @@
         <v>1049</v>
       </c>
       <c r="I20" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4546,7 +4546,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F21" t="s">
         <v>421</v>
@@ -4558,7 +4558,7 @@
         <v>1052</v>
       </c>
       <c r="I21" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4572,7 +4572,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F22" t="s">
         <v>422</v>
@@ -4581,13 +4581,13 @@
         <v>815</v>
       </c>
       <c r="H22" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="I22" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J22" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4601,7 +4601,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F23" t="s">
         <v>423</v>
@@ -4610,7 +4610,7 @@
         <v>816</v>
       </c>
       <c r="H23" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4624,7 +4624,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F24" t="s">
         <v>424</v>
@@ -4633,10 +4633,10 @@
         <v>816</v>
       </c>
       <c r="H24" t="s">
-        <v>1152</v>
+        <v>1206</v>
       </c>
       <c r="I24" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4650,7 +4650,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F25" t="s">
         <v>425</v>
@@ -4659,13 +4659,13 @@
         <v>817</v>
       </c>
       <c r="H25" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="I25" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J25" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4679,7 +4679,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F26" t="s">
         <v>426</v>
@@ -4691,7 +4691,7 @@
         <v>1048</v>
       </c>
       <c r="I26" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4705,7 +4705,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F27" t="s">
         <v>427</v>
@@ -4717,10 +4717,10 @@
         <v>1053</v>
       </c>
       <c r="I27" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J27" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4734,7 +4734,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F28" t="s">
         <v>428</v>
@@ -4746,7 +4746,7 @@
         <v>1054</v>
       </c>
       <c r="I28" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4760,7 +4760,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F29" t="s">
         <v>429</v>
@@ -4769,10 +4769,10 @@
         <v>820</v>
       </c>
       <c r="H29" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I29" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4786,7 +4786,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F30" t="s">
         <v>430</v>
@@ -4795,10 +4795,10 @@
         <v>821</v>
       </c>
       <c r="H30" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="I30" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,7 +4812,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F31" t="s">
         <v>431</v>
@@ -4824,7 +4824,7 @@
         <v>1055</v>
       </c>
       <c r="I31" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4838,7 +4838,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F32" t="s">
         <v>432</v>
@@ -4850,10 +4850,10 @@
         <v>1053</v>
       </c>
       <c r="I32" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J32" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4867,7 +4867,7 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F33" t="s">
         <v>433</v>
@@ -4879,7 +4879,7 @@
         <v>1055</v>
       </c>
       <c r="I33" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4893,7 +4893,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F34" t="s">
         <v>434</v>
@@ -4905,7 +4905,7 @@
         <v>1056</v>
       </c>
       <c r="I34" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4919,7 +4919,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F35" t="s">
         <v>435</v>
@@ -4931,7 +4931,7 @@
         <v>1057</v>
       </c>
       <c r="I35" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4945,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F36" t="s">
         <v>436</v>
@@ -4957,7 +4957,7 @@
         <v>1054</v>
       </c>
       <c r="I36" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4971,7 +4971,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F37" t="s">
         <v>437</v>
@@ -4983,7 +4983,7 @@
         <v>1057</v>
       </c>
       <c r="I37" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4997,7 +4997,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F38" t="s">
         <v>438</v>
@@ -5009,7 +5009,7 @@
         <v>1057</v>
       </c>
       <c r="I38" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5023,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F39" t="s">
         <v>439</v>
@@ -5035,7 +5035,7 @@
         <v>1054</v>
       </c>
       <c r="I39" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5049,7 +5049,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F40" t="s">
         <v>440</v>
@@ -5061,7 +5061,7 @@
         <v>1058</v>
       </c>
       <c r="I40" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5075,7 +5075,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F41" t="s">
         <v>441</v>
@@ -5087,7 +5087,7 @@
         <v>1058</v>
       </c>
       <c r="I41" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5101,7 +5101,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F42" t="s">
         <v>442</v>
@@ -5110,10 +5110,10 @@
         <v>830</v>
       </c>
       <c r="H42" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="I42" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5127,7 +5127,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F43" t="s">
         <v>443</v>
@@ -5139,7 +5139,7 @@
         <v>1059</v>
       </c>
       <c r="I43" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5153,7 +5153,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F44" t="s">
         <v>444</v>
@@ -5165,7 +5165,7 @@
         <v>1059</v>
       </c>
       <c r="I44" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5179,7 +5179,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F45" t="s">
         <v>445</v>
@@ -5188,10 +5188,10 @@
         <v>798</v>
       </c>
       <c r="H45" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="I45" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5205,7 +5205,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F46" t="s">
         <v>446</v>
@@ -5217,7 +5217,7 @@
         <v>1060</v>
       </c>
       <c r="I46" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5231,7 +5231,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F47" t="s">
         <v>447</v>
@@ -5243,7 +5243,7 @@
         <v>1061</v>
       </c>
       <c r="I47" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5257,7 +5257,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F48" t="s">
         <v>448</v>
@@ -5269,7 +5269,7 @@
         <v>1061</v>
       </c>
       <c r="I48" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5283,7 +5283,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F49" t="s">
         <v>449</v>
@@ -5295,7 +5295,7 @@
         <v>1062</v>
       </c>
       <c r="I49" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5309,7 +5309,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F50" t="s">
         <v>450</v>
@@ -5321,7 +5321,7 @@
         <v>1062</v>
       </c>
       <c r="I50" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5335,7 +5335,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F51" t="s">
         <v>451</v>
@@ -5344,10 +5344,10 @@
         <v>812</v>
       </c>
       <c r="H51" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="I51" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5361,7 +5361,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F52" t="s">
         <v>452</v>
@@ -5370,10 +5370,10 @@
         <v>838</v>
       </c>
       <c r="H52" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="I52" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5387,19 +5387,19 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F53" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="G53" t="s">
         <v>839</v>
       </c>
       <c r="H53" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I53" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5413,7 +5413,7 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F54" t="s">
         <v>453</v>
@@ -5425,7 +5425,7 @@
         <v>1064</v>
       </c>
       <c r="I54" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5439,7 +5439,7 @@
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F55" t="s">
         <v>454</v>
@@ -5451,7 +5451,7 @@
         <v>1065</v>
       </c>
       <c r="I55" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5465,7 +5465,7 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F56" t="s">
         <v>455</v>
@@ -5474,10 +5474,10 @@
         <v>842</v>
       </c>
       <c r="H56" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I56" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5491,7 +5491,7 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F57" t="s">
         <v>456</v>
@@ -5503,10 +5503,10 @@
         <v>1053</v>
       </c>
       <c r="I57" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J57" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5520,7 +5520,7 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F58" t="s">
         <v>457</v>
@@ -5532,7 +5532,7 @@
         <v>1055</v>
       </c>
       <c r="I58" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5546,7 +5546,7 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F59" t="s">
         <v>458</v>
@@ -5558,7 +5558,7 @@
         <v>1057</v>
       </c>
       <c r="I59" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5572,7 +5572,7 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F60" t="s">
         <v>459</v>
@@ -5584,7 +5584,7 @@
         <v>1054</v>
       </c>
       <c r="I60" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5598,7 +5598,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F61" t="s">
         <v>460</v>
@@ -5610,7 +5610,7 @@
         <v>1056</v>
       </c>
       <c r="I61" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5624,7 +5624,7 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F62" t="s">
         <v>461</v>
@@ -5636,7 +5636,7 @@
         <v>1059</v>
       </c>
       <c r="I62" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5650,7 +5650,7 @@
         <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F63" t="s">
         <v>462</v>
@@ -5662,7 +5662,7 @@
         <v>1062</v>
       </c>
       <c r="I63" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5676,7 +5676,7 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F64" t="s">
         <v>463</v>
@@ -5688,7 +5688,7 @@
         <v>1061</v>
       </c>
       <c r="I64" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -5702,7 +5702,7 @@
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F65" t="s">
         <v>464</v>
@@ -5711,10 +5711,10 @@
         <v>802</v>
       </c>
       <c r="H65" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I65" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -5728,7 +5728,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F66" t="s">
         <v>465</v>
@@ -5737,10 +5737,10 @@
         <v>849</v>
       </c>
       <c r="H66" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="I66" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -5754,7 +5754,7 @@
         <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F67" t="s">
         <v>466</v>
@@ -5763,10 +5763,10 @@
         <v>850</v>
       </c>
       <c r="H67" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="I67" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -5780,7 +5780,7 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F68" t="s">
         <v>467</v>
@@ -5789,10 +5789,10 @@
         <v>802</v>
       </c>
       <c r="H68" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="I68" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -5806,7 +5806,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F69" t="s">
         <v>468</v>
@@ -5815,10 +5815,10 @@
         <v>851</v>
       </c>
       <c r="H69" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="I69" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -5832,7 +5832,7 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F70" t="s">
         <v>469</v>
@@ -5841,10 +5841,10 @@
         <v>852</v>
       </c>
       <c r="H70" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="I70" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -5858,7 +5858,7 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F71" t="s">
         <v>470</v>
@@ -5870,7 +5870,7 @@
         <v>1067</v>
       </c>
       <c r="I71" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -5884,7 +5884,7 @@
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F72" t="s">
         <v>471</v>
@@ -5896,7 +5896,7 @@
         <v>1067</v>
       </c>
       <c r="I72" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -5910,7 +5910,7 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F73" t="s">
         <v>472</v>
@@ -5922,19 +5922,19 @@
         <v>1067</v>
       </c>
       <c r="I73" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="K73" t="s">
         <v>1068</v>
       </c>
       <c r="L73" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="M73" t="s">
         <v>1070</v>
       </c>
       <c r="N73" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -5948,7 +5948,7 @@
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F74" t="s">
         <v>473</v>
@@ -5960,19 +5960,19 @@
         <v>1067</v>
       </c>
       <c r="I74" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="K74" t="s">
         <v>1068</v>
       </c>
       <c r="L74" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="M74" t="s">
         <v>1070</v>
       </c>
       <c r="N74" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -5986,7 +5986,7 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F75" t="s">
         <v>474</v>
@@ -5998,7 +5998,7 @@
         <v>1067</v>
       </c>
       <c r="I75" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -6012,7 +6012,7 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F76" t="s">
         <v>475</v>
@@ -6024,7 +6024,7 @@
         <v>1068</v>
       </c>
       <c r="I76" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -6038,7 +6038,7 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F77" t="s">
         <v>476</v>
@@ -6050,7 +6050,7 @@
         <v>1068</v>
       </c>
       <c r="I77" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F78" t="s">
         <v>477</v>
@@ -6076,7 +6076,7 @@
         <v>1069</v>
       </c>
       <c r="I78" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -6090,7 +6090,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F79" t="s">
         <v>478</v>
@@ -6102,7 +6102,7 @@
         <v>1070</v>
       </c>
       <c r="I79" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -6116,7 +6116,7 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F80" t="s">
         <v>479</v>
@@ -6125,10 +6125,10 @@
         <v>862</v>
       </c>
       <c r="H80" t="s">
-        <v>1154</v>
+        <v>1205</v>
       </c>
       <c r="I80" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6142,7 +6142,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F81" t="s">
         <v>480</v>
@@ -6151,10 +6151,10 @@
         <v>863</v>
       </c>
       <c r="H81" t="s">
-        <v>1154</v>
+        <v>1205</v>
       </c>
       <c r="I81" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6168,7 +6168,7 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F82" t="s">
         <v>481</v>
@@ -6177,10 +6177,10 @@
         <v>864</v>
       </c>
       <c r="H82" t="s">
-        <v>1154</v>
+        <v>1205</v>
       </c>
       <c r="I82" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6194,7 +6194,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F83" t="s">
         <v>482</v>
@@ -6206,7 +6206,7 @@
         <v>1071</v>
       </c>
       <c r="I83" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -6220,7 +6220,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F84" t="s">
         <v>483</v>
@@ -6232,7 +6232,7 @@
         <v>1071</v>
       </c>
       <c r="I84" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -6246,7 +6246,7 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F85" t="s">
         <v>484</v>
@@ -6258,7 +6258,7 @@
         <v>1071</v>
       </c>
       <c r="I85" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -6272,7 +6272,7 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F86" t="s">
         <v>485</v>
@@ -6284,7 +6284,7 @@
         <v>1071</v>
       </c>
       <c r="I86" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6298,7 +6298,7 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F87" t="s">
         <v>486</v>
@@ -6310,7 +6310,7 @@
         <v>1071</v>
       </c>
       <c r="I87" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6324,7 +6324,7 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F88" t="s">
         <v>487</v>
@@ -6333,10 +6333,10 @@
         <v>807</v>
       </c>
       <c r="H88" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="I88" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -6350,7 +6350,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F89" t="s">
         <v>488</v>
@@ -6359,10 +6359,10 @@
         <v>869</v>
       </c>
       <c r="H89" t="s">
-        <v>1155</v>
+        <v>1207</v>
       </c>
       <c r="I89" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6376,7 +6376,7 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F90" t="s">
         <v>489</v>
@@ -6385,10 +6385,10 @@
         <v>870</v>
       </c>
       <c r="H90" t="s">
-        <v>1155</v>
+        <v>1207</v>
       </c>
       <c r="I90" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6402,7 +6402,7 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F91" t="s">
         <v>490</v>
@@ -6411,10 +6411,10 @@
         <v>871</v>
       </c>
       <c r="H91" t="s">
-        <v>1156</v>
+        <v>1209</v>
       </c>
       <c r="I91" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6428,7 +6428,7 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F92" t="s">
         <v>491</v>
@@ -6437,10 +6437,10 @@
         <v>872</v>
       </c>
       <c r="H92" t="s">
-        <v>1156</v>
+        <v>1209</v>
       </c>
       <c r="I92" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6454,7 +6454,7 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F93" t="s">
         <v>492</v>
@@ -6463,10 +6463,10 @@
         <v>802</v>
       </c>
       <c r="H93" t="s">
-        <v>1156</v>
+        <v>1209</v>
       </c>
       <c r="I93" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F94" t="s">
         <v>493</v>
@@ -6489,10 +6489,10 @@
         <v>873</v>
       </c>
       <c r="H94" t="s">
-        <v>1156</v>
+        <v>1209</v>
       </c>
       <c r="I94" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6506,7 +6506,7 @@
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F95" t="s">
         <v>494</v>
@@ -6515,13 +6515,13 @@
         <v>874</v>
       </c>
       <c r="H95" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I95" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J95" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6535,7 +6535,7 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F96" t="s">
         <v>495</v>
@@ -6544,13 +6544,13 @@
         <v>865</v>
       </c>
       <c r="H96" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I96" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J96" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6564,7 +6564,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F97" t="s">
         <v>496</v>
@@ -6573,13 +6573,13 @@
         <v>875</v>
       </c>
       <c r="H97" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I97" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J97" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F98" t="s">
         <v>497</v>
@@ -6602,13 +6602,13 @@
         <v>876</v>
       </c>
       <c r="H98" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I98" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J98" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6622,7 +6622,7 @@
         <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F99" t="s">
         <v>498</v>
@@ -6631,13 +6631,13 @@
         <v>857</v>
       </c>
       <c r="H99" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="I99" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J99" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6651,7 +6651,7 @@
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F100" t="s">
         <v>499</v>
@@ -6660,10 +6660,10 @@
         <v>877</v>
       </c>
       <c r="H100" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="I100" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6677,7 +6677,7 @@
         <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F101" t="s">
         <v>500</v>
@@ -6686,10 +6686,10 @@
         <v>870</v>
       </c>
       <c r="H101" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="I101" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6703,7 +6703,7 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F102" t="s">
         <v>501</v>
@@ -6715,7 +6715,7 @@
         <v>1074</v>
       </c>
       <c r="I102" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6729,7 +6729,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F103" t="s">
         <v>502</v>
@@ -6741,7 +6741,7 @@
         <v>1075</v>
       </c>
       <c r="I103" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6755,7 +6755,7 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F104" t="s">
         <v>503</v>
@@ -6767,7 +6767,7 @@
         <v>1075</v>
       </c>
       <c r="I104" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F105" t="s">
         <v>504</v>
@@ -6793,7 +6793,7 @@
         <v>1075</v>
       </c>
       <c r="I105" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -6807,7 +6807,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F106" t="s">
         <v>505</v>
@@ -6819,7 +6819,7 @@
         <v>1075</v>
       </c>
       <c r="I106" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6833,7 +6833,7 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F107" t="s">
         <v>506</v>
@@ -6845,7 +6845,7 @@
         <v>1076</v>
       </c>
       <c r="I107" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -6859,7 +6859,7 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F108" t="s">
         <v>507</v>
@@ -6871,7 +6871,7 @@
         <v>1076</v>
       </c>
       <c r="I108" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -6885,7 +6885,7 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F109" t="s">
         <v>508</v>
@@ -6894,10 +6894,10 @@
         <v>876</v>
       </c>
       <c r="H109" t="s">
-        <v>1155</v>
+        <v>1207</v>
       </c>
       <c r="I109" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -6911,7 +6911,7 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F110" t="s">
         <v>509</v>
@@ -6923,7 +6923,7 @@
         <v>1077</v>
       </c>
       <c r="I110" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -6937,7 +6937,7 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F111" t="s">
         <v>510</v>
@@ -6946,10 +6946,10 @@
         <v>802</v>
       </c>
       <c r="H111" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="I111" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -6963,7 +6963,7 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F112" t="s">
         <v>511</v>
@@ -6972,10 +6972,10 @@
         <v>807</v>
       </c>
       <c r="H112" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="I112" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6989,7 +6989,7 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F113" t="s">
         <v>512</v>
@@ -6998,10 +6998,10 @@
         <v>802</v>
       </c>
       <c r="H113" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="I113" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7015,7 +7015,7 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F114" t="s">
         <v>513</v>
@@ -7024,10 +7024,10 @@
         <v>882</v>
       </c>
       <c r="H114" t="s">
-        <v>1154</v>
+        <v>1205</v>
       </c>
       <c r="I114" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7041,7 +7041,7 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F115" t="s">
         <v>514</v>
@@ -7053,7 +7053,7 @@
         <v>1078</v>
       </c>
       <c r="I115" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7067,7 +7067,7 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F116" t="s">
         <v>515</v>
@@ -7079,7 +7079,7 @@
         <v>1078</v>
       </c>
       <c r="I116" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7093,7 +7093,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F117" t="s">
         <v>516</v>
@@ -7105,7 +7105,7 @@
         <v>1078</v>
       </c>
       <c r="I117" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7119,7 +7119,7 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F118" t="s">
         <v>517</v>
@@ -7128,10 +7128,10 @@
         <v>807</v>
       </c>
       <c r="H118" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="I118" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7145,7 +7145,7 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F119" t="s">
         <v>518</v>
@@ -7157,7 +7157,7 @@
         <v>1079</v>
       </c>
       <c r="I119" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7171,7 +7171,7 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F120" t="s">
         <v>519</v>
@@ -7183,7 +7183,7 @@
         <v>1079</v>
       </c>
       <c r="I120" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7197,7 +7197,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F121" t="s">
         <v>520</v>
@@ -7209,7 +7209,7 @@
         <v>1080</v>
       </c>
       <c r="I121" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7223,7 +7223,7 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F122" t="s">
         <v>521</v>
@@ -7235,7 +7235,7 @@
         <v>1080</v>
       </c>
       <c r="I122" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7249,7 +7249,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F123" t="s">
         <v>522</v>
@@ -7261,7 +7261,7 @@
         <v>1080</v>
       </c>
       <c r="I123" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7275,7 +7275,7 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F124" t="s">
         <v>523</v>
@@ -7287,7 +7287,7 @@
         <v>1081</v>
       </c>
       <c r="I124" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F125" t="s">
         <v>524</v>
@@ -7310,10 +7310,10 @@
         <v>807</v>
       </c>
       <c r="H125" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="I125" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7327,7 +7327,7 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F126" t="s">
         <v>525</v>
@@ -7336,10 +7336,10 @@
         <v>802</v>
       </c>
       <c r="H126" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="I126" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7353,7 +7353,7 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F127" t="s">
         <v>526</v>
@@ -7365,7 +7365,7 @@
         <v>1082</v>
       </c>
       <c r="I127" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7379,7 +7379,7 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F128" t="s">
         <v>527</v>
@@ -7391,7 +7391,7 @@
         <v>1083</v>
       </c>
       <c r="I128" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7405,7 +7405,7 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F129" t="s">
         <v>528</v>
@@ -7417,7 +7417,7 @@
         <v>1083</v>
       </c>
       <c r="I129" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7431,7 +7431,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F130" t="s">
         <v>529</v>
@@ -7440,10 +7440,10 @@
         <v>890</v>
       </c>
       <c r="H130" t="s">
-        <v>1084</v>
+        <v>1204</v>
       </c>
       <c r="I130" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7457,7 +7457,7 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F131" t="s">
         <v>530</v>
@@ -7466,10 +7466,10 @@
         <v>891</v>
       </c>
       <c r="H131" t="s">
-        <v>1084</v>
+        <v>1204</v>
       </c>
       <c r="I131" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7483,7 +7483,7 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F132" t="s">
         <v>531</v>
@@ -7492,10 +7492,10 @@
         <v>892</v>
       </c>
       <c r="H132" t="s">
-        <v>1084</v>
+        <v>1204</v>
       </c>
       <c r="I132" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7509,7 +7509,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F133" t="s">
         <v>532</v>
@@ -7518,10 +7518,10 @@
         <v>893</v>
       </c>
       <c r="H133" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I133" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7535,7 +7535,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F134" t="s">
         <v>533</v>
@@ -7544,10 +7544,10 @@
         <v>894</v>
       </c>
       <c r="H134" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I134" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7561,7 +7561,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F135" t="s">
         <v>534</v>
@@ -7570,10 +7570,10 @@
         <v>895</v>
       </c>
       <c r="H135" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I135" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7587,7 +7587,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F136" t="s">
         <v>535</v>
@@ -7599,7 +7599,7 @@
         <v>1072</v>
       </c>
       <c r="I136" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F137" t="s">
         <v>536</v>
@@ -7622,10 +7622,10 @@
         <v>896</v>
       </c>
       <c r="H137" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="I137" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7639,7 +7639,7 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F138" t="s">
         <v>537</v>
@@ -7648,10 +7648,10 @@
         <v>802</v>
       </c>
       <c r="H138" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I138" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7665,7 +7665,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F139" t="s">
         <v>538</v>
@@ -7674,10 +7674,10 @@
         <v>802</v>
       </c>
       <c r="H139" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I139" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7691,7 +7691,7 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F140" t="s">
         <v>539</v>
@@ -7700,10 +7700,10 @@
         <v>802</v>
       </c>
       <c r="H140" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I140" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7717,7 +7717,7 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F141" t="s">
         <v>540</v>
@@ -7726,10 +7726,10 @@
         <v>897</v>
       </c>
       <c r="H141" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I141" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7743,7 +7743,7 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F142" t="s">
         <v>541</v>
@@ -7752,10 +7752,10 @@
         <v>898</v>
       </c>
       <c r="H142" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I142" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7769,7 +7769,7 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F143" t="s">
         <v>542</v>
@@ -7778,10 +7778,10 @@
         <v>899</v>
       </c>
       <c r="H143" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="I143" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7795,7 +7795,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F144" t="s">
         <v>543</v>
@@ -7804,10 +7804,10 @@
         <v>900</v>
       </c>
       <c r="H144" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="I144" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7821,7 +7821,7 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F145" t="s">
         <v>544</v>
@@ -7830,10 +7830,10 @@
         <v>901</v>
       </c>
       <c r="H145" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="I145" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7847,19 +7847,19 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F146" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="G146" t="s">
         <v>902</v>
       </c>
       <c r="H146" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I146" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7873,7 +7873,7 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F147" t="s">
         <v>545</v>
@@ -7882,10 +7882,10 @@
         <v>903</v>
       </c>
       <c r="H147" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I147" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7899,7 +7899,7 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F148" t="s">
         <v>546</v>
@@ -7908,10 +7908,10 @@
         <v>904</v>
       </c>
       <c r="H148" t="s">
-        <v>1167</v>
+        <v>1203</v>
       </c>
       <c r="I148" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7925,7 +7925,7 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F149" t="s">
         <v>547</v>
@@ -7934,10 +7934,10 @@
         <v>802</v>
       </c>
       <c r="H149" t="s">
-        <v>1167</v>
+        <v>1203</v>
       </c>
       <c r="I149" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7951,7 +7951,7 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F150" t="s">
         <v>548</v>
@@ -7960,10 +7960,10 @@
         <v>905</v>
       </c>
       <c r="H150" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="I150" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7977,7 +7977,7 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F151" t="s">
         <v>549</v>
@@ -7986,10 +7986,10 @@
         <v>906</v>
       </c>
       <c r="H151" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I151" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8003,7 +8003,7 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F152" t="s">
         <v>550</v>
@@ -8012,10 +8012,10 @@
         <v>802</v>
       </c>
       <c r="H152" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I152" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8029,7 +8029,7 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F153" t="s">
         <v>551</v>
@@ -8038,10 +8038,10 @@
         <v>802</v>
       </c>
       <c r="H153" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I153" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8055,7 +8055,7 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F154" t="s">
         <v>552</v>
@@ -8064,10 +8064,10 @@
         <v>907</v>
       </c>
       <c r="H154" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I154" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8081,7 +8081,7 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F155" t="s">
         <v>553</v>
@@ -8090,10 +8090,10 @@
         <v>908</v>
       </c>
       <c r="H155" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I155" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8107,7 +8107,7 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F156" t="s">
         <v>554</v>
@@ -8116,10 +8116,10 @@
         <v>857</v>
       </c>
       <c r="H156" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I156" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8133,7 +8133,7 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F157" t="s">
         <v>555</v>
@@ -8142,10 +8142,10 @@
         <v>807</v>
       </c>
       <c r="H157" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I157" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8159,7 +8159,7 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F158" t="s">
         <v>556</v>
@@ -8168,10 +8168,10 @@
         <v>802</v>
       </c>
       <c r="H158" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="I158" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8185,7 +8185,7 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F159" t="s">
         <v>557</v>
@@ -8194,10 +8194,10 @@
         <v>833</v>
       </c>
       <c r="H159" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="I159" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8211,7 +8211,7 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F160" t="s">
         <v>558</v>
@@ -8220,10 +8220,10 @@
         <v>909</v>
       </c>
       <c r="H160" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="I160" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8237,7 +8237,7 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F161" t="s">
         <v>559</v>
@@ -8246,10 +8246,10 @@
         <v>910</v>
       </c>
       <c r="H161" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I161" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8263,7 +8263,7 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F162" t="s">
         <v>560</v>
@@ -8272,10 +8272,10 @@
         <v>911</v>
       </c>
       <c r="H162" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I162" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8289,7 +8289,7 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F163" t="s">
         <v>561</v>
@@ -8298,10 +8298,10 @@
         <v>912</v>
       </c>
       <c r="H163" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I163" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8315,7 +8315,7 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F164" t="s">
         <v>562</v>
@@ -8324,10 +8324,10 @@
         <v>913</v>
       </c>
       <c r="H164" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I164" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8341,7 +8341,7 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F165" t="s">
         <v>563</v>
@@ -8350,10 +8350,10 @@
         <v>914</v>
       </c>
       <c r="H165" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I165" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8367,7 +8367,7 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F166" t="s">
         <v>564</v>
@@ -8376,10 +8376,10 @@
         <v>915</v>
       </c>
       <c r="H166" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I166" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8393,7 +8393,7 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F167" t="s">
         <v>565</v>
@@ -8402,10 +8402,10 @@
         <v>916</v>
       </c>
       <c r="H167" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I167" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8419,7 +8419,7 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F168" t="s">
         <v>566</v>
@@ -8428,10 +8428,10 @@
         <v>917</v>
       </c>
       <c r="H168" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I168" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8445,7 +8445,7 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F169" t="s">
         <v>567</v>
@@ -8454,10 +8454,10 @@
         <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I169" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8471,7 +8471,7 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F170" t="s">
         <v>568</v>
@@ -8480,10 +8480,10 @@
         <v>802</v>
       </c>
       <c r="H170" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I170" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8497,7 +8497,7 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="F171" t="s">
         <v>569</v>
@@ -8506,10 +8506,10 @@
         <v>802</v>
       </c>
       <c r="H171" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I171" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8523,7 +8523,7 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F172" t="s">
         <v>570</v>
@@ -8532,10 +8532,10 @@
         <v>918</v>
       </c>
       <c r="H172" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I172" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8549,7 +8549,7 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F173" t="s">
         <v>571</v>
@@ -8558,10 +8558,10 @@
         <v>919</v>
       </c>
       <c r="H173" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I173" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8575,7 +8575,7 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F174" t="s">
         <v>572</v>
@@ -8584,10 +8584,10 @@
         <v>920</v>
       </c>
       <c r="H174" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I174" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8601,7 +8601,7 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F175" t="s">
         <v>573</v>
@@ -8610,10 +8610,10 @@
         <v>921</v>
       </c>
       <c r="H175" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I175" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8627,7 +8627,7 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F176" t="s">
         <v>574</v>
@@ -8636,10 +8636,10 @@
         <v>922</v>
       </c>
       <c r="H176" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I176" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -8653,7 +8653,7 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F177" t="s">
         <v>575</v>
@@ -8662,10 +8662,10 @@
         <v>923</v>
       </c>
       <c r="H177" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I177" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -8679,7 +8679,7 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F178" t="s">
         <v>576</v>
@@ -8688,10 +8688,10 @@
         <v>924</v>
       </c>
       <c r="H178" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I178" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -8705,7 +8705,7 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F179" t="s">
         <v>577</v>
@@ -8714,10 +8714,10 @@
         <v>857</v>
       </c>
       <c r="H179" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I179" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -8731,7 +8731,7 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F180" t="s">
         <v>578</v>
@@ -8740,10 +8740,10 @@
         <v>925</v>
       </c>
       <c r="H180" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I180" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -8757,7 +8757,7 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F181" t="s">
         <v>579</v>
@@ -8766,10 +8766,10 @@
         <v>926</v>
       </c>
       <c r="H181" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I181" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -8783,7 +8783,7 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F182" t="s">
         <v>580</v>
@@ -8792,10 +8792,10 @@
         <v>927</v>
       </c>
       <c r="H182" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I182" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -8809,7 +8809,7 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F183" t="s">
         <v>581</v>
@@ -8818,10 +8818,10 @@
         <v>928</v>
       </c>
       <c r="H183" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I183" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -8835,7 +8835,7 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F184" t="s">
         <v>582</v>
@@ -8844,10 +8844,10 @@
         <v>929</v>
       </c>
       <c r="H184" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I184" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -8861,7 +8861,7 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F185" t="s">
         <v>583</v>
@@ -8870,10 +8870,10 @@
         <v>930</v>
       </c>
       <c r="H185" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I185" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -8887,7 +8887,7 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F186" t="s">
         <v>584</v>
@@ -8896,10 +8896,10 @@
         <v>931</v>
       </c>
       <c r="H186" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I186" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -8913,7 +8913,7 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F187" t="s">
         <v>585</v>
@@ -8922,10 +8922,10 @@
         <v>932</v>
       </c>
       <c r="H187" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I187" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -8939,7 +8939,7 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F188" t="s">
         <v>586</v>
@@ -8948,10 +8948,10 @@
         <v>933</v>
       </c>
       <c r="H188" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I188" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -8965,7 +8965,7 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F189" t="s">
         <v>587</v>
@@ -8974,10 +8974,10 @@
         <v>934</v>
       </c>
       <c r="H189" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I189" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -8991,7 +8991,7 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F190" t="s">
         <v>588</v>
@@ -9000,10 +9000,10 @@
         <v>935</v>
       </c>
       <c r="H190" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I190" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9017,7 +9017,7 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F191" t="s">
         <v>589</v>
@@ -9026,10 +9026,10 @@
         <v>936</v>
       </c>
       <c r="H191" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I191" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9043,7 +9043,7 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F192" t="s">
         <v>590</v>
@@ -9052,10 +9052,10 @@
         <v>937</v>
       </c>
       <c r="H192" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I192" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9069,7 +9069,7 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F193" t="s">
         <v>591</v>
@@ -9078,10 +9078,10 @@
         <v>938</v>
       </c>
       <c r="H193" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I193" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9095,7 +9095,7 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F194" t="s">
         <v>592</v>
@@ -9104,10 +9104,10 @@
         <v>857</v>
       </c>
       <c r="H194" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I194" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9121,7 +9121,7 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F195" t="s">
         <v>593</v>
@@ -9130,10 +9130,10 @@
         <v>939</v>
       </c>
       <c r="H195" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="I195" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9147,7 +9147,7 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F196" t="s">
         <v>594</v>
@@ -9156,13 +9156,13 @@
         <v>864</v>
       </c>
       <c r="H196" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="I196" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="J196" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9176,7 +9176,7 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F197" t="s">
         <v>595</v>
@@ -9185,13 +9185,13 @@
         <v>940</v>
       </c>
       <c r="H197" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="I197" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="J197" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9205,7 +9205,7 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F198" t="s">
         <v>596</v>
@@ -9214,10 +9214,10 @@
         <v>807</v>
       </c>
       <c r="H198" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I198" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9231,7 +9231,7 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F199" t="s">
         <v>597</v>
@@ -9240,10 +9240,10 @@
         <v>807</v>
       </c>
       <c r="H199" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I199" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9257,7 +9257,7 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F200" t="s">
         <v>598</v>
@@ -9266,10 +9266,10 @@
         <v>802</v>
       </c>
       <c r="H200" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I200" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9283,7 +9283,7 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F201" t="s">
         <v>599</v>
@@ -9292,10 +9292,10 @@
         <v>941</v>
       </c>
       <c r="H201" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="I201" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9309,7 +9309,7 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F202" t="s">
         <v>600</v>
@@ -9318,10 +9318,10 @@
         <v>942</v>
       </c>
       <c r="H202" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I202" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9335,7 +9335,7 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F203" t="s">
         <v>601</v>
@@ -9344,10 +9344,10 @@
         <v>877</v>
       </c>
       <c r="H203" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I203" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9361,7 +9361,7 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F204" t="s">
         <v>602</v>
@@ -9370,13 +9370,13 @@
         <v>943</v>
       </c>
       <c r="H204" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I204" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J204" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9390,7 +9390,7 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F205" t="s">
         <v>603</v>
@@ -9399,10 +9399,10 @@
         <v>944</v>
       </c>
       <c r="H205" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I205" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9416,7 +9416,7 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F206" t="s">
         <v>604</v>
@@ -9425,10 +9425,10 @@
         <v>945</v>
       </c>
       <c r="H206" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I206" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9442,7 +9442,7 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F207" t="s">
         <v>605</v>
@@ -9451,10 +9451,10 @@
         <v>946</v>
       </c>
       <c r="H207" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I207" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9468,7 +9468,7 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F208" t="s">
         <v>606</v>
@@ -9477,10 +9477,10 @@
         <v>947</v>
       </c>
       <c r="H208" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I208" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -9494,7 +9494,7 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F209" t="s">
         <v>607</v>
@@ -9503,10 +9503,10 @@
         <v>948</v>
       </c>
       <c r="H209" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I209" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -9520,7 +9520,7 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F210" t="s">
         <v>608</v>
@@ -9529,10 +9529,10 @@
         <v>949</v>
       </c>
       <c r="H210" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I210" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -9546,7 +9546,7 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F211" t="s">
         <v>609</v>
@@ -9555,13 +9555,13 @@
         <v>950</v>
       </c>
       <c r="H211" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I211" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J211" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -9575,7 +9575,7 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F212" t="s">
         <v>610</v>
@@ -9584,10 +9584,10 @@
         <v>951</v>
       </c>
       <c r="H212" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I212" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -9601,7 +9601,7 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F213" t="s">
         <v>611</v>
@@ -9610,10 +9610,10 @@
         <v>836</v>
       </c>
       <c r="H213" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I213" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -9627,7 +9627,7 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F214" t="s">
         <v>612</v>
@@ -9636,13 +9636,13 @@
         <v>952</v>
       </c>
       <c r="H214" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I214" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J214" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -9656,7 +9656,7 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F215" t="s">
         <v>613</v>
@@ -9665,10 +9665,10 @@
         <v>953</v>
       </c>
       <c r="H215" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I215" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -9682,7 +9682,7 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F216" t="s">
         <v>614</v>
@@ -9691,10 +9691,10 @@
         <v>948</v>
       </c>
       <c r="H216" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I216" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -9708,7 +9708,7 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F217" t="s">
         <v>615</v>
@@ -9717,10 +9717,10 @@
         <v>954</v>
       </c>
       <c r="H217" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I217" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -9734,7 +9734,7 @@
         <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F218" t="s">
         <v>616</v>
@@ -9743,13 +9743,13 @@
         <v>955</v>
       </c>
       <c r="H218" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I218" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J218" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -9763,7 +9763,7 @@
         <v>223</v>
       </c>
       <c r="E219" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F219" t="s">
         <v>617</v>
@@ -9772,10 +9772,10 @@
         <v>956</v>
       </c>
       <c r="H219" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I219" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -9789,7 +9789,7 @@
         <v>224</v>
       </c>
       <c r="E220" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F220" t="s">
         <v>618</v>
@@ -9798,10 +9798,10 @@
         <v>957</v>
       </c>
       <c r="H220" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="I220" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -9815,7 +9815,7 @@
         <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F221" t="s">
         <v>619</v>
@@ -9824,10 +9824,10 @@
         <v>958</v>
       </c>
       <c r="H221" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="I221" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -9841,7 +9841,7 @@
         <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F222" t="s">
         <v>620</v>
@@ -9850,10 +9850,10 @@
         <v>959</v>
       </c>
       <c r="H222" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="I222" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -9867,7 +9867,7 @@
         <v>227</v>
       </c>
       <c r="E223" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F223" t="s">
         <v>621</v>
@@ -9879,7 +9879,7 @@
         <v>1049</v>
       </c>
       <c r="I223" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -9893,7 +9893,7 @@
         <v>228</v>
       </c>
       <c r="E224" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F224" t="s">
         <v>622</v>
@@ -9902,10 +9902,10 @@
         <v>807</v>
       </c>
       <c r="H224" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I224" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -9919,7 +9919,7 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F225" t="s">
         <v>623</v>
@@ -9928,10 +9928,10 @@
         <v>896</v>
       </c>
       <c r="H225" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I225" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -9945,7 +9945,7 @@
         <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F226" t="s">
         <v>624</v>
@@ -9954,10 +9954,10 @@
         <v>807</v>
       </c>
       <c r="H226" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I226" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -9971,7 +9971,7 @@
         <v>231</v>
       </c>
       <c r="E227" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F227" t="s">
         <v>625</v>
@@ -9980,10 +9980,10 @@
         <v>807</v>
       </c>
       <c r="H227" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I227" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -9997,7 +9997,7 @@
         <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F228" t="s">
         <v>626</v>
@@ -10006,10 +10006,10 @@
         <v>960</v>
       </c>
       <c r="H228" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="I228" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10023,7 +10023,7 @@
         <v>233</v>
       </c>
       <c r="E229" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F229" t="s">
         <v>627</v>
@@ -10032,10 +10032,10 @@
         <v>806</v>
       </c>
       <c r="H229" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I229" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10049,7 +10049,7 @@
         <v>234</v>
       </c>
       <c r="E230" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F230" t="s">
         <v>628</v>
@@ -10058,10 +10058,10 @@
         <v>961</v>
       </c>
       <c r="H230" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I230" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10075,7 +10075,7 @@
         <v>235</v>
       </c>
       <c r="E231" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F231" t="s">
         <v>629</v>
@@ -10084,10 +10084,10 @@
         <v>962</v>
       </c>
       <c r="H231" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="I231" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10101,7 +10101,7 @@
         <v>236</v>
       </c>
       <c r="E232" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F232" t="s">
         <v>630</v>
@@ -10110,10 +10110,10 @@
         <v>807</v>
       </c>
       <c r="H232" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="I232" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10127,7 +10127,7 @@
         <v>237</v>
       </c>
       <c r="E233" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F233" t="s">
         <v>631</v>
@@ -10136,10 +10136,10 @@
         <v>851</v>
       </c>
       <c r="H233" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="I233" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10153,7 +10153,7 @@
         <v>238</v>
       </c>
       <c r="E234" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F234" t="s">
         <v>632</v>
@@ -10162,10 +10162,10 @@
         <v>851</v>
       </c>
       <c r="H234" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="I234" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10179,7 +10179,7 @@
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F235" t="s">
         <v>633</v>
@@ -10188,10 +10188,10 @@
         <v>846</v>
       </c>
       <c r="H235" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="I235" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10205,7 +10205,7 @@
         <v>240</v>
       </c>
       <c r="E236" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F236" t="s">
         <v>634</v>
@@ -10214,10 +10214,10 @@
         <v>963</v>
       </c>
       <c r="H236" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I236" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10231,7 +10231,7 @@
         <v>241</v>
       </c>
       <c r="E237" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F237" t="s">
         <v>635</v>
@@ -10240,10 +10240,10 @@
         <v>964</v>
       </c>
       <c r="H237" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="I237" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10257,7 +10257,7 @@
         <v>242</v>
       </c>
       <c r="E238" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F238" t="s">
         <v>636</v>
@@ -10266,10 +10266,10 @@
         <v>965</v>
       </c>
       <c r="H238" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="I238" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10283,7 +10283,7 @@
         <v>243</v>
       </c>
       <c r="E239" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F239" t="s">
         <v>637</v>
@@ -10292,10 +10292,10 @@
         <v>952</v>
       </c>
       <c r="H239" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I239" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10309,7 +10309,7 @@
         <v>244</v>
       </c>
       <c r="E240" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F240" t="s">
         <v>638</v>
@@ -10318,10 +10318,10 @@
         <v>966</v>
       </c>
       <c r="H240" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I240" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10335,7 +10335,7 @@
         <v>245</v>
       </c>
       <c r="E241" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F241" t="s">
         <v>639</v>
@@ -10344,10 +10344,10 @@
         <v>851</v>
       </c>
       <c r="H241" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I241" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10361,7 +10361,7 @@
         <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F242" t="s">
         <v>640</v>
@@ -10373,7 +10373,7 @@
         <v>1063</v>
       </c>
       <c r="I242" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10387,7 +10387,7 @@
         <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F243" t="s">
         <v>641</v>
@@ -10396,10 +10396,10 @@
         <v>807</v>
       </c>
       <c r="H243" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="I243" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10413,7 +10413,7 @@
         <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F244" t="s">
         <v>642</v>
@@ -10422,10 +10422,10 @@
         <v>802</v>
       </c>
       <c r="H244" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I244" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10439,7 +10439,7 @@
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F245" t="s">
         <v>643</v>
@@ -10448,10 +10448,10 @@
         <v>833</v>
       </c>
       <c r="H245" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I245" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10465,7 +10465,7 @@
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F246" t="s">
         <v>644</v>
@@ -10477,7 +10477,7 @@
         <v>1063</v>
       </c>
       <c r="I246" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10491,7 +10491,7 @@
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F247" t="s">
         <v>645</v>
@@ -10500,10 +10500,10 @@
         <v>969</v>
       </c>
       <c r="H247" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I247" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10517,7 +10517,7 @@
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F248" t="s">
         <v>646</v>
@@ -10526,10 +10526,10 @@
         <v>970</v>
       </c>
       <c r="H248" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="I248" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10543,7 +10543,7 @@
         <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F249" t="s">
         <v>647</v>
@@ -10552,10 +10552,10 @@
         <v>971</v>
       </c>
       <c r="H249" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="I249" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10569,7 +10569,7 @@
         <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F250" t="s">
         <v>648</v>
@@ -10578,10 +10578,10 @@
         <v>802</v>
       </c>
       <c r="H250" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I250" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10595,7 +10595,7 @@
         <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F251" t="s">
         <v>649</v>
@@ -10607,7 +10607,7 @@
         <v>1066</v>
       </c>
       <c r="I251" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10621,7 +10621,7 @@
         <v>256</v>
       </c>
       <c r="E252" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F252" t="s">
         <v>650</v>
@@ -10630,10 +10630,10 @@
         <v>802</v>
       </c>
       <c r="H252" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I252" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10647,7 +10647,7 @@
         <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F253" t="s">
         <v>651</v>
@@ -10659,7 +10659,7 @@
         <v>1063</v>
       </c>
       <c r="I253" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10673,7 +10673,7 @@
         <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F254" t="s">
         <v>652</v>
@@ -10685,7 +10685,7 @@
         <v>1063</v>
       </c>
       <c r="I254" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10699,7 +10699,7 @@
         <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F255" t="s">
         <v>653</v>
@@ -10711,7 +10711,7 @@
         <v>1063</v>
       </c>
       <c r="I255" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10725,7 +10725,7 @@
         <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F256" t="s">
         <v>654</v>
@@ -10734,10 +10734,10 @@
         <v>975</v>
       </c>
       <c r="H256" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="I256" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10751,7 +10751,7 @@
         <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F257" t="s">
         <v>655</v>
@@ -10760,10 +10760,10 @@
         <v>976</v>
       </c>
       <c r="H257" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="I257" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10777,7 +10777,7 @@
         <v>262</v>
       </c>
       <c r="E258" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F258" t="s">
         <v>656</v>
@@ -10786,10 +10786,10 @@
         <v>977</v>
       </c>
       <c r="H258" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="I258" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10806,7 +10806,7 @@
         <v>263</v>
       </c>
       <c r="E259" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F259" t="s">
         <v>657</v>
@@ -10815,10 +10815,10 @@
         <v>850</v>
       </c>
       <c r="H259" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I259" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -10835,7 +10835,7 @@
         <v>264</v>
       </c>
       <c r="E260" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F260" t="s">
         <v>658</v>
@@ -10844,10 +10844,10 @@
         <v>833</v>
       </c>
       <c r="H260" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I260" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -10861,7 +10861,7 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F261" t="s">
         <v>659</v>
@@ -10870,10 +10870,10 @@
         <v>978</v>
       </c>
       <c r="H261" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I261" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10887,7 +10887,7 @@
         <v>266</v>
       </c>
       <c r="E262" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F262" t="s">
         <v>660</v>
@@ -10896,10 +10896,10 @@
         <v>979</v>
       </c>
       <c r="H262" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I262" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10913,7 +10913,7 @@
         <v>267</v>
       </c>
       <c r="E263" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F263" t="s">
         <v>661</v>
@@ -10922,10 +10922,10 @@
         <v>904</v>
       </c>
       <c r="H263" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I263" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10939,7 +10939,7 @@
         <v>268</v>
       </c>
       <c r="E264" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F264" t="s">
         <v>662</v>
@@ -10948,10 +10948,10 @@
         <v>980</v>
       </c>
       <c r="H264" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I264" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10965,7 +10965,7 @@
         <v>269</v>
       </c>
       <c r="E265" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F265" t="s">
         <v>663</v>
@@ -10974,10 +10974,10 @@
         <v>981</v>
       </c>
       <c r="H265" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I265" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10991,7 +10991,7 @@
         <v>270</v>
       </c>
       <c r="E266" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F266" t="s">
         <v>664</v>
@@ -11000,10 +11000,10 @@
         <v>816</v>
       </c>
       <c r="H266" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I266" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11017,7 +11017,7 @@
         <v>271</v>
       </c>
       <c r="E267" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F267" t="s">
         <v>665</v>
@@ -11026,10 +11026,10 @@
         <v>982</v>
       </c>
       <c r="H267" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I267" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11043,7 +11043,7 @@
         <v>272</v>
       </c>
       <c r="E268" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F268" t="s">
         <v>666</v>
@@ -11052,10 +11052,10 @@
         <v>836</v>
       </c>
       <c r="H268" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I268" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11069,7 +11069,7 @@
         <v>273</v>
       </c>
       <c r="E269" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F269" t="s">
         <v>667</v>
@@ -11078,10 +11078,10 @@
         <v>983</v>
       </c>
       <c r="H269" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I269" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11095,7 +11095,7 @@
         <v>274</v>
       </c>
       <c r="E270" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F270" t="s">
         <v>668</v>
@@ -11104,10 +11104,10 @@
         <v>807</v>
       </c>
       <c r="H270" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I270" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11121,7 +11121,7 @@
         <v>275</v>
       </c>
       <c r="E271" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F271" t="s">
         <v>669</v>
@@ -11130,10 +11130,10 @@
         <v>807</v>
       </c>
       <c r="H271" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I271" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11147,7 +11147,7 @@
         <v>276</v>
       </c>
       <c r="E272" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F272" t="s">
         <v>670</v>
@@ -11156,10 +11156,10 @@
         <v>862</v>
       </c>
       <c r="H272" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I272" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11173,7 +11173,7 @@
         <v>277</v>
       </c>
       <c r="E273" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F273" t="s">
         <v>671</v>
@@ -11182,10 +11182,10 @@
         <v>984</v>
       </c>
       <c r="H273" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I273" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11199,7 +11199,7 @@
         <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F274" t="s">
         <v>672</v>
@@ -11208,10 +11208,10 @@
         <v>985</v>
       </c>
       <c r="H274" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I274" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11225,7 +11225,7 @@
         <v>279</v>
       </c>
       <c r="E275" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F275" t="s">
         <v>673</v>
@@ -11234,10 +11234,10 @@
         <v>815</v>
       </c>
       <c r="H275" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I275" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11251,7 +11251,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F276" t="s">
         <v>674</v>
@@ -11260,10 +11260,10 @@
         <v>813</v>
       </c>
       <c r="H276" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I276" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11277,7 +11277,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F277" t="s">
         <v>675</v>
@@ -11286,10 +11286,10 @@
         <v>986</v>
       </c>
       <c r="H277" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I277" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11303,7 +11303,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F278" t="s">
         <v>676</v>
@@ -11312,10 +11312,10 @@
         <v>807</v>
       </c>
       <c r="H278" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I278" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11329,7 +11329,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F279" t="s">
         <v>677</v>
@@ -11338,10 +11338,10 @@
         <v>802</v>
       </c>
       <c r="H279" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I279" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11355,7 +11355,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F280" t="s">
         <v>678</v>
@@ -11364,10 +11364,10 @@
         <v>851</v>
       </c>
       <c r="H280" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I280" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11381,7 +11381,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F281" t="s">
         <v>679</v>
@@ -11390,10 +11390,10 @@
         <v>837</v>
       </c>
       <c r="H281" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="I281" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11407,7 +11407,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F282" t="s">
         <v>680</v>
@@ -11416,10 +11416,10 @@
         <v>987</v>
       </c>
       <c r="H282" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="I282" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11433,7 +11433,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F283" t="s">
         <v>681</v>
@@ -11442,10 +11442,10 @@
         <v>851</v>
       </c>
       <c r="H283" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I283" t="s">
         <v>1164</v>
-      </c>
-      <c r="I283" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11459,7 +11459,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F284" t="s">
         <v>682</v>
@@ -11468,10 +11468,10 @@
         <v>807</v>
       </c>
       <c r="H284" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I284" t="s">
         <v>1164</v>
-      </c>
-      <c r="I284" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11485,7 +11485,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F285" t="s">
         <v>683</v>
@@ -11494,10 +11494,10 @@
         <v>802</v>
       </c>
       <c r="H285" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I285" t="s">
         <v>1164</v>
-      </c>
-      <c r="I285" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11511,7 +11511,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F286" t="s">
         <v>684</v>
@@ -11520,10 +11520,10 @@
         <v>802</v>
       </c>
       <c r="H286" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I286" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11537,7 +11537,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F287" t="s">
         <v>685</v>
@@ -11546,10 +11546,10 @@
         <v>802</v>
       </c>
       <c r="H287" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I287" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11563,7 +11563,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F288" t="s">
         <v>686</v>
@@ -11572,10 +11572,10 @@
         <v>988</v>
       </c>
       <c r="H288" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I288" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11589,7 +11589,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F289" t="s">
         <v>687</v>
@@ -11598,10 +11598,10 @@
         <v>851</v>
       </c>
       <c r="H289" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I289" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11615,7 +11615,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F290" t="s">
         <v>688</v>
@@ -11624,10 +11624,10 @@
         <v>989</v>
       </c>
       <c r="H290" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="I290" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11641,7 +11641,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F291" t="s">
         <v>689</v>
@@ -11650,10 +11650,10 @@
         <v>990</v>
       </c>
       <c r="H291" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="I291" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11670,7 +11670,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F292" t="s">
         <v>690</v>
@@ -11679,10 +11679,10 @@
         <v>825</v>
       </c>
       <c r="H292" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="I292" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11696,7 +11696,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F293" t="s">
         <v>691</v>
@@ -11705,10 +11705,10 @@
         <v>991</v>
       </c>
       <c r="H293" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I293" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11722,7 +11722,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F294" t="s">
         <v>692</v>
@@ -11731,10 +11731,10 @@
         <v>992</v>
       </c>
       <c r="H294" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I294" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11748,7 +11748,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F295" t="s">
         <v>693</v>
@@ -11757,10 +11757,10 @@
         <v>993</v>
       </c>
       <c r="H295" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="I295" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11774,7 +11774,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F296" t="s">
         <v>694</v>
@@ -11783,10 +11783,10 @@
         <v>994</v>
       </c>
       <c r="H296" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I296" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11800,7 +11800,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F297" t="s">
         <v>695</v>
@@ -11809,10 +11809,10 @@
         <v>995</v>
       </c>
       <c r="H297" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="I297" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11826,7 +11826,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F298" t="s">
         <v>696</v>
@@ -11835,10 +11835,10 @@
         <v>996</v>
       </c>
       <c r="H298" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I298" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11852,7 +11852,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F299" t="s">
         <v>697</v>
@@ -11861,10 +11861,10 @@
         <v>849</v>
       </c>
       <c r="H299" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I299" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11878,7 +11878,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F300" t="s">
         <v>698</v>
@@ -11887,10 +11887,10 @@
         <v>968</v>
       </c>
       <c r="H300" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I300" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11904,7 +11904,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F301" t="s">
         <v>699</v>
@@ -11913,10 +11913,10 @@
         <v>807</v>
       </c>
       <c r="H301" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I301" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11930,7 +11930,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F302" t="s">
         <v>700</v>
@@ -11939,10 +11939,10 @@
         <v>807</v>
       </c>
       <c r="H302" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I302" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11956,7 +11956,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F303" t="s">
         <v>701</v>
@@ -11965,10 +11965,10 @@
         <v>802</v>
       </c>
       <c r="H303" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I303" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11982,7 +11982,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F304" t="s">
         <v>702</v>
@@ -11991,10 +11991,10 @@
         <v>948</v>
       </c>
       <c r="H304" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I304" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12008,7 +12008,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F305" t="s">
         <v>703</v>
@@ -12017,10 +12017,10 @@
         <v>802</v>
       </c>
       <c r="H305" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I305" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12034,7 +12034,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F306" t="s">
         <v>704</v>
@@ -12043,10 +12043,10 @@
         <v>850</v>
       </c>
       <c r="H306" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I306" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12060,7 +12060,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F307" t="s">
         <v>705</v>
@@ -12069,10 +12069,10 @@
         <v>846</v>
       </c>
       <c r="H307" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="I307" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12086,7 +12086,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="F308" t="s">
         <v>706</v>
@@ -12095,10 +12095,10 @@
         <v>997</v>
       </c>
       <c r="H308" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I308" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12112,7 +12112,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F309" t="s">
         <v>707</v>
@@ -12124,7 +12124,7 @@
         <v>1073</v>
       </c>
       <c r="I309" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12138,7 +12138,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F310" t="s">
         <v>708</v>
@@ -12150,7 +12150,7 @@
         <v>1073</v>
       </c>
       <c r="I310" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12164,7 +12164,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F311" t="s">
         <v>709</v>
@@ -12176,7 +12176,7 @@
         <v>1073</v>
       </c>
       <c r="I311" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12190,7 +12190,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F312" t="s">
         <v>710</v>
@@ -12199,10 +12199,10 @@
         <v>950</v>
       </c>
       <c r="H312" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I312" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12216,7 +12216,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F313" t="s">
         <v>711</v>
@@ -12225,10 +12225,10 @@
         <v>1000</v>
       </c>
       <c r="H313" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I313" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12242,7 +12242,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F314" t="s">
         <v>712</v>
@@ -12251,10 +12251,10 @@
         <v>1001</v>
       </c>
       <c r="H314" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I314" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12268,7 +12268,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F315" t="s">
         <v>713</v>
@@ -12277,10 +12277,10 @@
         <v>1002</v>
       </c>
       <c r="H315" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I315" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12294,7 +12294,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F316" t="s">
         <v>714</v>
@@ -12303,10 +12303,10 @@
         <v>1003</v>
       </c>
       <c r="H316" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I316" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12320,7 +12320,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F317" t="s">
         <v>715</v>
@@ -12329,10 +12329,10 @@
         <v>1004</v>
       </c>
       <c r="H317" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I317" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12349,7 +12349,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F318" t="s">
         <v>716</v>
@@ -12358,10 +12358,10 @@
         <v>1005</v>
       </c>
       <c r="H318" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I318" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12378,7 +12378,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F319" t="s">
         <v>717</v>
@@ -12387,10 +12387,10 @@
         <v>1006</v>
       </c>
       <c r="H319" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I319" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12407,7 +12407,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F320" t="s">
         <v>718</v>
@@ -12416,10 +12416,10 @@
         <v>1007</v>
       </c>
       <c r="H320" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I320" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12433,7 +12433,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F321" t="s">
         <v>719</v>
@@ -12442,10 +12442,10 @@
         <v>1008</v>
       </c>
       <c r="H321" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="I321" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12459,7 +12459,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F322" t="s">
         <v>720</v>
@@ -12468,10 +12468,10 @@
         <v>1009</v>
       </c>
       <c r="H322" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="I322" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12485,7 +12485,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F323" t="s">
         <v>721</v>
@@ -12494,10 +12494,10 @@
         <v>1010</v>
       </c>
       <c r="H323" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I323" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12511,7 +12511,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F324" t="s">
         <v>722</v>
@@ -12520,10 +12520,10 @@
         <v>1011</v>
       </c>
       <c r="H324" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I324" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12537,7 +12537,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F325" t="s">
         <v>723</v>
@@ -12546,10 +12546,10 @@
         <v>857</v>
       </c>
       <c r="H325" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I325" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12563,7 +12563,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F326" t="s">
         <v>724</v>
@@ -12572,10 +12572,10 @@
         <v>802</v>
       </c>
       <c r="H326" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I326" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12589,7 +12589,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F327" t="s">
         <v>725</v>
@@ -12598,10 +12598,10 @@
         <v>896</v>
       </c>
       <c r="H327" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I327" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12615,7 +12615,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F328" t="s">
         <v>726</v>
@@ -12624,10 +12624,10 @@
         <v>807</v>
       </c>
       <c r="H328" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I328" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12641,7 +12641,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F329" t="s">
         <v>727</v>
@@ -12650,10 +12650,10 @@
         <v>802</v>
       </c>
       <c r="H329" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I329" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12667,7 +12667,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F330" t="s">
         <v>728</v>
@@ -12679,7 +12679,7 @@
         <v>1050</v>
       </c>
       <c r="I330" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12693,7 +12693,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F331" t="s">
         <v>729</v>
@@ -12702,10 +12702,10 @@
         <v>1012</v>
       </c>
       <c r="H331" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I331" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12719,7 +12719,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F332" t="s">
         <v>730</v>
@@ -12728,10 +12728,10 @@
         <v>863</v>
       </c>
       <c r="H332" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I332" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12745,7 +12745,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F333" t="s">
         <v>731</v>
@@ -12754,10 +12754,10 @@
         <v>857</v>
       </c>
       <c r="H333" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I333" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12771,7 +12771,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F334" t="s">
         <v>732</v>
@@ -12780,10 +12780,10 @@
         <v>857</v>
       </c>
       <c r="H334" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I334" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12797,7 +12797,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F335" t="s">
         <v>733</v>
@@ -12806,10 +12806,10 @@
         <v>1013</v>
       </c>
       <c r="H335" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I335" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12823,7 +12823,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F336" t="s">
         <v>734</v>
@@ -12832,10 +12832,10 @@
         <v>1014</v>
       </c>
       <c r="H336" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I336" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12849,7 +12849,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F337" t="s">
         <v>735</v>
@@ -12858,10 +12858,10 @@
         <v>1015</v>
       </c>
       <c r="H337" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I337" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12875,7 +12875,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F338" t="s">
         <v>736</v>
@@ -12884,10 +12884,10 @@
         <v>1016</v>
       </c>
       <c r="H338" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I338" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12901,7 +12901,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F339" t="s">
         <v>737</v>
@@ -12910,10 +12910,10 @@
         <v>1017</v>
       </c>
       <c r="H339" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I339" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12927,7 +12927,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F340" t="s">
         <v>738</v>
@@ -12936,10 +12936,10 @@
         <v>1018</v>
       </c>
       <c r="H340" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I340" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12953,7 +12953,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F341" t="s">
         <v>739</v>
@@ -12962,10 +12962,10 @@
         <v>1019</v>
       </c>
       <c r="H341" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I341" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12979,7 +12979,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F342" t="s">
         <v>740</v>
@@ -12988,10 +12988,10 @@
         <v>1020</v>
       </c>
       <c r="H342" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I342" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13005,7 +13005,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F343" t="s">
         <v>741</v>
@@ -13014,10 +13014,10 @@
         <v>1021</v>
       </c>
       <c r="H343" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I343" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13031,7 +13031,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F344" t="s">
         <v>742</v>
@@ -13040,10 +13040,10 @@
         <v>857</v>
       </c>
       <c r="H344" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I344" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13057,7 +13057,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F345" t="s">
         <v>743</v>
@@ -13066,10 +13066,10 @@
         <v>1022</v>
       </c>
       <c r="H345" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I345" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13083,7 +13083,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F346" t="s">
         <v>744</v>
@@ -13092,10 +13092,10 @@
         <v>1023</v>
       </c>
       <c r="H346" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I346" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13109,7 +13109,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F347" t="s">
         <v>745</v>
@@ -13118,10 +13118,10 @@
         <v>896</v>
       </c>
       <c r="H347" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I347" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13135,7 +13135,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F348" t="s">
         <v>746</v>
@@ -13144,10 +13144,10 @@
         <v>807</v>
       </c>
       <c r="H348" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I348" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13161,7 +13161,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F349" t="s">
         <v>747</v>
@@ -13170,10 +13170,10 @@
         <v>802</v>
       </c>
       <c r="H349" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I349" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13187,7 +13187,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F350" t="s">
         <v>748</v>
@@ -13196,10 +13196,10 @@
         <v>807</v>
       </c>
       <c r="H350" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I350" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13216,7 +13216,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F351" t="s">
         <v>749</v>
@@ -13225,10 +13225,10 @@
         <v>1024</v>
       </c>
       <c r="H351" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I351" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13245,7 +13245,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F352" t="s">
         <v>750</v>
@@ -13254,10 +13254,10 @@
         <v>896</v>
       </c>
       <c r="H352" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I352" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -13274,7 +13274,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F353" t="s">
         <v>751</v>
@@ -13283,10 +13283,10 @@
         <v>1025</v>
       </c>
       <c r="H353" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I353" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -13303,7 +13303,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F354" t="s">
         <v>752</v>
@@ -13312,10 +13312,10 @@
         <v>857</v>
       </c>
       <c r="H354" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I354" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -13332,7 +13332,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F355" t="s">
         <v>753</v>
@@ -13341,10 +13341,10 @@
         <v>955</v>
       </c>
       <c r="H355" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="I355" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -13361,7 +13361,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F356" t="s">
         <v>754</v>
@@ -13370,10 +13370,10 @@
         <v>807</v>
       </c>
       <c r="H356" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="I356" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F357" t="s">
         <v>755</v>
@@ -13399,10 +13399,10 @@
         <v>1026</v>
       </c>
       <c r="H357" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="I357" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -13416,7 +13416,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F358" t="s">
         <v>756</v>
@@ -13425,10 +13425,10 @@
         <v>807</v>
       </c>
       <c r="H358" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I358" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -13442,7 +13442,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F359" t="s">
         <v>757</v>
@@ -13451,10 +13451,10 @@
         <v>807</v>
       </c>
       <c r="H359" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I359" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -13468,7 +13468,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F360" t="s">
         <v>758</v>
@@ -13477,10 +13477,10 @@
         <v>1027</v>
       </c>
       <c r="H360" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="I360" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -13494,7 +13494,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F361" t="s">
         <v>759</v>
@@ -13503,10 +13503,10 @@
         <v>802</v>
       </c>
       <c r="H361" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="I361" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -13520,7 +13520,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F362" t="s">
         <v>760</v>
@@ -13529,10 +13529,10 @@
         <v>1028</v>
       </c>
       <c r="H362" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I362" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -13546,7 +13546,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F363" t="s">
         <v>761</v>
@@ -13555,10 +13555,10 @@
         <v>802</v>
       </c>
       <c r="H363" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I363" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -13572,7 +13572,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F364" t="s">
         <v>762</v>
@@ -13581,13 +13581,13 @@
         <v>807</v>
       </c>
       <c r="H364" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I364" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J364" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -13601,7 +13601,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F365" t="s">
         <v>763</v>
@@ -13610,13 +13610,13 @@
         <v>807</v>
       </c>
       <c r="H365" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I365" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J365" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -13630,7 +13630,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F366" t="s">
         <v>764</v>
@@ -13639,13 +13639,13 @@
         <v>807</v>
       </c>
       <c r="H366" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I366" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J366" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -13659,7 +13659,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F367" t="s">
         <v>765</v>
@@ -13668,13 +13668,13 @@
         <v>802</v>
       </c>
       <c r="H367" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I367" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="J367" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -13688,7 +13688,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F368" t="s">
         <v>766</v>
@@ -13697,10 +13697,10 @@
         <v>807</v>
       </c>
       <c r="H368" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I368" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -13714,7 +13714,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F369" t="s">
         <v>767</v>
@@ -13723,10 +13723,10 @@
         <v>802</v>
       </c>
       <c r="H369" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="I369" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -13740,7 +13740,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F370" t="s">
         <v>768</v>
@@ -13749,10 +13749,10 @@
         <v>1029</v>
       </c>
       <c r="H370" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I370" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -13766,7 +13766,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F371" t="s">
         <v>769</v>
@@ -13775,10 +13775,10 @@
         <v>1030</v>
       </c>
       <c r="H371" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I371" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -13792,7 +13792,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F372" t="s">
         <v>770</v>
@@ -13801,10 +13801,10 @@
         <v>851</v>
       </c>
       <c r="H372" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I372" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -13818,7 +13818,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F373" t="s">
         <v>771</v>
@@ -13827,10 +13827,10 @@
         <v>1031</v>
       </c>
       <c r="H373" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I373" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -13844,7 +13844,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F374" t="s">
         <v>772</v>
@@ -13853,10 +13853,10 @@
         <v>802</v>
       </c>
       <c r="H374" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I374" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -13870,7 +13870,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F375" t="s">
         <v>773</v>
@@ -13879,10 +13879,10 @@
         <v>1032</v>
       </c>
       <c r="H375" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I375" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -13896,7 +13896,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F376" t="s">
         <v>774</v>
@@ -13905,10 +13905,10 @@
         <v>1033</v>
       </c>
       <c r="H376" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I376" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -13922,7 +13922,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F377" t="s">
         <v>775</v>
@@ -13931,10 +13931,10 @@
         <v>1034</v>
       </c>
       <c r="H377" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="I377" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -13948,7 +13948,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F378" t="s">
         <v>776</v>
@@ -13957,10 +13957,10 @@
         <v>1035</v>
       </c>
       <c r="H378" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I378" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -13974,7 +13974,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F379" t="s">
         <v>777</v>
@@ -13983,10 +13983,10 @@
         <v>877</v>
       </c>
       <c r="H379" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I379" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14000,7 +14000,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F380" t="s">
         <v>778</v>
@@ -14009,10 +14009,10 @@
         <v>1036</v>
       </c>
       <c r="H380" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I380" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14026,7 +14026,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F381" t="s">
         <v>779</v>
@@ -14035,10 +14035,10 @@
         <v>1037</v>
       </c>
       <c r="H381" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I381" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14052,7 +14052,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F382" t="s">
         <v>780</v>
@@ -14061,10 +14061,10 @@
         <v>1038</v>
       </c>
       <c r="H382" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I382" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14078,7 +14078,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F383" t="s">
         <v>781</v>
@@ -14087,10 +14087,10 @@
         <v>802</v>
       </c>
       <c r="H383" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I383" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14104,7 +14104,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F384" t="s">
         <v>782</v>
@@ -14113,10 +14113,10 @@
         <v>802</v>
       </c>
       <c r="H384" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="I384" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14130,7 +14130,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F385" t="s">
         <v>783</v>
@@ -14139,10 +14139,10 @@
         <v>1039</v>
       </c>
       <c r="H385" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I385" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14156,7 +14156,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F386" t="s">
         <v>784</v>
@@ -14165,10 +14165,10 @@
         <v>1040</v>
       </c>
       <c r="H386" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I386" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14182,7 +14182,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F387" t="s">
         <v>785</v>
@@ -14191,10 +14191,10 @@
         <v>807</v>
       </c>
       <c r="H387" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I387" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14208,7 +14208,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F388" t="s">
         <v>786</v>
@@ -14217,10 +14217,10 @@
         <v>807</v>
       </c>
       <c r="H388" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I388" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14234,7 +14234,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F389" t="s">
         <v>787</v>
@@ -14243,10 +14243,10 @@
         <v>1041</v>
       </c>
       <c r="H389" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I389" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14260,7 +14260,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F390" t="s">
         <v>788</v>
@@ -14269,10 +14269,10 @@
         <v>1042</v>
       </c>
       <c r="H390" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I390" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14286,7 +14286,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F391" t="s">
         <v>789</v>
@@ -14295,10 +14295,10 @@
         <v>807</v>
       </c>
       <c r="H391" t="s">
-        <v>1149</v>
+        <v>1208</v>
       </c>
       <c r="I391" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14312,7 +14312,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F392" t="s">
         <v>790</v>
@@ -14321,10 +14321,10 @@
         <v>1043</v>
       </c>
       <c r="H392" t="s">
-        <v>1149</v>
+        <v>1208</v>
       </c>
       <c r="I392" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14338,7 +14338,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F393" t="s">
         <v>791</v>
@@ -14347,10 +14347,10 @@
         <v>1044</v>
       </c>
       <c r="H393" t="s">
-        <v>1149</v>
+        <v>1208</v>
       </c>
       <c r="I393" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14364,7 +14364,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F394" t="s">
         <v>792</v>
@@ -14373,10 +14373,10 @@
         <v>851</v>
       </c>
       <c r="H394" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I394" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14390,7 +14390,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F395" t="s">
         <v>793</v>
@@ -14399,10 +14399,10 @@
         <v>1025</v>
       </c>
       <c r="H395" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I395" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14416,7 +14416,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F396" t="s">
         <v>794</v>
@@ -14425,10 +14425,10 @@
         <v>1045</v>
       </c>
       <c r="H396" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I396" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -14442,7 +14442,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F397" t="s">
         <v>795</v>
@@ -14451,10 +14451,10 @@
         <v>1046</v>
       </c>
       <c r="H397" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I397" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -14468,7 +14468,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F398" t="s">
         <v>796</v>
@@ -14477,10 +14477,10 @@
         <v>1047</v>
       </c>
       <c r="H398" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I398" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
